--- a/dpr-data.xlsx
+++ b/dpr-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24978" windowHeight="10518" tabRatio="720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24978" windowHeight="10518" tabRatio="720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Anadarko Region" sheetId="12" r:id="rId1"/>
@@ -7033,12 +7033,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A192" sqref="A192:XFD192"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:XFD192"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A193" sqref="A193:XFD193"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11655,7 +11655,7 @@
         <v>30</v>
       </c>
       <c r="C178" s="6">
-        <v>894.2</v>
+        <v>891.4</v>
       </c>
       <c r="D178" s="6">
         <v>-29000.799999999999</v>
@@ -11664,7 +11664,7 @@
         <v>366280.1</v>
       </c>
       <c r="F178" s="6">
-        <v>4831.2</v>
+        <v>4806.3</v>
       </c>
       <c r="G178" s="6">
         <v>-195459.9</v>
@@ -11681,7 +11681,7 @@
         <v>33</v>
       </c>
       <c r="C179" s="6">
-        <v>870</v>
+        <v>862.9</v>
       </c>
       <c r="D179" s="6">
         <v>-28785.9</v>
@@ -11690,7 +11690,7 @@
         <v>381619</v>
       </c>
       <c r="F179" s="6">
-        <v>4686.3</v>
+        <v>4614</v>
       </c>
       <c r="G179" s="6">
         <v>-197446.9</v>
@@ -11707,7 +11707,7 @@
         <v>39</v>
       </c>
       <c r="C180" s="6">
-        <v>846.5</v>
+        <v>835.3</v>
       </c>
       <c r="D180" s="6">
         <v>-29991.4</v>
@@ -11716,7 +11716,7 @@
         <v>381979.9</v>
       </c>
       <c r="F180" s="6">
-        <v>4545.7</v>
+        <v>4429.5</v>
       </c>
       <c r="G180" s="6">
         <v>-199442</v>
@@ -11733,7 +11733,7 @@
         <v>41</v>
       </c>
       <c r="C181" s="6">
-        <v>823.7</v>
+        <v>808.6</v>
       </c>
       <c r="D181" s="6">
         <v>-30019.7</v>
@@ -11742,7 +11742,7 @@
         <v>382218</v>
       </c>
       <c r="F181" s="6">
-        <v>4409.3</v>
+        <v>4252.3</v>
       </c>
       <c r="G181" s="6">
         <v>-199586.8</v>
@@ -11759,7 +11759,7 @@
         <v>45</v>
       </c>
       <c r="C182" s="6">
-        <v>801.5</v>
+        <v>782.7</v>
       </c>
       <c r="D182" s="6">
         <v>-30038.5</v>
@@ -11768,7 +11768,7 @@
         <v>383215.5</v>
       </c>
       <c r="F182" s="6">
-        <v>4277</v>
+        <v>4103.5</v>
       </c>
       <c r="G182" s="6">
         <v>-198702.4</v>
@@ -11785,7 +11785,7 @@
         <v>48</v>
       </c>
       <c r="C183" s="6">
-        <v>779.8</v>
+        <v>757.6</v>
       </c>
       <c r="D183" s="6">
         <v>-30116.9</v>
@@ -11794,7 +11794,7 @@
         <v>386431.8</v>
       </c>
       <c r="F183" s="6">
-        <v>4148.7</v>
+        <v>3980.4</v>
       </c>
       <c r="G183" s="6">
         <v>-196719.6</v>
@@ -11811,7 +11811,7 @@
         <v>50</v>
       </c>
       <c r="C184" s="6">
-        <v>758.8</v>
+        <v>733.4</v>
       </c>
       <c r="D184" s="6">
         <v>-30369.599999999999</v>
@@ -11820,7 +11820,7 @@
         <v>372906.7</v>
       </c>
       <c r="F184" s="6">
-        <v>4024.2</v>
+        <v>3896.8</v>
       </c>
       <c r="G184" s="6">
         <v>-192019.7</v>
@@ -11837,7 +11837,7 @@
         <v>48</v>
       </c>
       <c r="C185" s="6">
-        <v>742.1</v>
+        <v>712.1</v>
       </c>
       <c r="D185" s="6">
         <v>-29306.7</v>
@@ -11846,7 +11846,7 @@
         <v>395126.5</v>
       </c>
       <c r="F185" s="6">
-        <v>3984</v>
+        <v>3830.5</v>
       </c>
       <c r="G185" s="6">
         <v>-192508.79999999999</v>
@@ -11863,7 +11863,7 @@
         <v>48</v>
       </c>
       <c r="C186" s="6">
-        <v>727.2</v>
+        <v>703.4</v>
       </c>
       <c r="D186" s="6">
         <v>-31052.9</v>
@@ -11872,7 +11872,7 @@
         <v>407552.4</v>
       </c>
       <c r="F186" s="6">
-        <v>3944.2</v>
+        <v>3788.4</v>
       </c>
       <c r="G186" s="6">
         <v>-199701.2</v>
@@ -11889,7 +11889,7 @@
         <v>52</v>
       </c>
       <c r="C187" s="6">
-        <v>722.1</v>
+        <v>697</v>
       </c>
       <c r="D187" s="6">
         <v>-32029.5</v>
@@ -11898,7 +11898,7 @@
         <v>413751.2</v>
       </c>
       <c r="F187" s="6">
-        <v>3904.7</v>
+        <v>3765.7</v>
       </c>
       <c r="G187" s="6">
         <v>-207048.4</v>
@@ -11915,7 +11915,7 @@
         <v>53</v>
       </c>
       <c r="C188" s="6">
-        <v>717.1</v>
+        <v>692.2</v>
       </c>
       <c r="D188" s="6">
         <v>-32516.7</v>
@@ -11924,7 +11924,7 @@
         <v>408039.3</v>
       </c>
       <c r="F188" s="6">
-        <v>3869.6</v>
+        <v>3746.8</v>
       </c>
       <c r="G188" s="6">
         <v>-209969.8</v>
@@ -11941,22 +11941,22 @@
         <v>55</v>
       </c>
       <c r="C189" s="6">
-        <v>712.1</v>
+        <v>689.4</v>
       </c>
       <c r="D189" s="6">
         <v>-32067.8</v>
       </c>
       <c r="E189" s="6">
-        <v>412998.5</v>
+        <v>406972.6</v>
       </c>
       <c r="F189" s="6">
-        <v>3830.9</v>
+        <v>3743.1</v>
       </c>
       <c r="G189" s="6">
         <v>-211920.6</v>
       </c>
       <c r="H189" s="6">
-        <v>6726627.7999999998</v>
+        <v>6722062.4000000004</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11967,46 +11967,48 @@
         <v>58</v>
       </c>
       <c r="C190" s="6">
-        <v>708.5</v>
+        <v>689</v>
       </c>
       <c r="D190" s="6">
-        <v>-32457.5</v>
+        <v>-31987.1</v>
       </c>
       <c r="E190" s="6">
-        <v>418091.3</v>
+        <v>411504.7</v>
       </c>
       <c r="F190" s="6">
-        <v>3831.3</v>
+        <v>3750.6</v>
       </c>
       <c r="G190" s="6">
-        <v>-212282.3</v>
+        <v>-212138.2</v>
       </c>
       <c r="H190" s="6">
-        <v>6717402.7000000002</v>
+        <v>6708704.5999999996</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5">
         <v>44805</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>57</v>
+      </c>
       <c r="C191" s="6">
-        <v>710.7</v>
+        <v>690.4</v>
       </c>
       <c r="D191" s="6">
-        <v>-32857.699999999997</v>
+        <v>-32346.6</v>
       </c>
       <c r="E191" s="6">
-        <v>424321.7</v>
+        <v>417131.2</v>
       </c>
       <c r="F191" s="6">
-        <v>3835.1</v>
+        <v>3760</v>
       </c>
       <c r="G191" s="6">
-        <v>-213051.1</v>
+        <v>-212478.8</v>
       </c>
       <c r="H191" s="6">
-        <v>6715282.0999999996</v>
+        <v>6703023</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -12015,22 +12017,46 @@
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6">
-        <v>712.9</v>
+        <v>692.5</v>
       </c>
       <c r="D192" s="6">
-        <v>-33347.4</v>
+        <v>-32792.1</v>
       </c>
       <c r="E192" s="6">
-        <v>432322.3</v>
+        <v>424503.6</v>
       </c>
       <c r="F192" s="6">
-        <v>3842.8</v>
+        <v>3771.2</v>
       </c>
       <c r="G192" s="6">
-        <v>-214176.6</v>
+        <v>-213487.8</v>
       </c>
       <c r="H192" s="6">
-        <v>6723986.0999999996</v>
+        <v>6708266.7000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6">
+        <v>695.3</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-33375</v>
+      </c>
+      <c r="E193" s="6">
+        <v>430758.40000000002</v>
+      </c>
+      <c r="F193" s="6">
+        <v>3786.3</v>
+      </c>
+      <c r="G193" s="6">
+        <v>-214851.20000000001</v>
+      </c>
+      <c r="H193" s="6">
+        <v>6709235.4000000004</v>
       </c>
     </row>
   </sheetData>
@@ -12046,12 +12072,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A192" sqref="A192:XFD192"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:XFD192"/>
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A193" sqref="A193:XFD193"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16523,7 +16549,7 @@
         <v>-1172253.3</v>
       </c>
       <c r="H171" s="6">
-        <v>35429159</v>
+        <v>34855159</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16546,7 +16572,7 @@
         <v>33120.300000000003</v>
       </c>
       <c r="G172" s="6">
-        <v>-1212609.5</v>
+        <v>-1192963.6000000001</v>
       </c>
       <c r="H172" s="6">
         <v>34381859.600000001</v>
@@ -16745,7 +16771,7 @@
         <v>188.9</v>
       </c>
       <c r="D180" s="6">
-        <v>-6665.1</v>
+        <v>-6672.8</v>
       </c>
       <c r="E180" s="6">
         <v>105000</v>
@@ -16771,7 +16797,7 @@
         <v>189.1</v>
       </c>
       <c r="D181" s="6">
-        <v>-6700.6</v>
+        <v>-6705.4</v>
       </c>
       <c r="E181" s="6">
         <v>106000</v>
@@ -16797,7 +16823,7 @@
         <v>189.3</v>
       </c>
       <c r="D182" s="6">
-        <v>-6734.5</v>
+        <v>-6735.9</v>
       </c>
       <c r="E182" s="6">
         <v>106000</v>
@@ -16823,7 +16849,7 @@
         <v>189.5</v>
       </c>
       <c r="D183" s="6">
-        <v>-6768.9</v>
+        <v>-6767.1</v>
       </c>
       <c r="E183" s="6">
         <v>105000</v>
@@ -16849,7 +16875,7 @@
         <v>189.6</v>
       </c>
       <c r="D184" s="6">
-        <v>-6802.8</v>
+        <v>-6798</v>
       </c>
       <c r="E184" s="6">
         <v>108000</v>
@@ -16875,7 +16901,7 @@
         <v>189.8</v>
       </c>
       <c r="D185" s="6">
-        <v>-6833.1</v>
+        <v>-6825.7</v>
       </c>
       <c r="E185" s="6">
         <v>116000</v>
@@ -16901,7 +16927,7 @@
         <v>190</v>
       </c>
       <c r="D186" s="6">
-        <v>-6866.2</v>
+        <v>-6856.2</v>
       </c>
       <c r="E186" s="6">
         <v>122000</v>
@@ -16927,10 +16953,10 @@
         <v>190.2</v>
       </c>
       <c r="D187" s="6">
-        <v>-6897.9</v>
+        <v>-6885.6</v>
       </c>
       <c r="E187" s="6">
-        <v>119000</v>
+        <v>120000</v>
       </c>
       <c r="F187" s="6">
         <v>28969.200000000001</v>
@@ -16953,10 +16979,10 @@
         <v>190.4</v>
       </c>
       <c r="D188" s="6">
-        <v>-6930.4</v>
+        <v>-6915.8</v>
       </c>
       <c r="E188" s="6">
-        <v>112000</v>
+        <v>113000</v>
       </c>
       <c r="F188" s="6">
         <v>28534.7</v>
@@ -16979,10 +17005,10 @@
         <v>190.6</v>
       </c>
       <c r="D189" s="6">
-        <v>-6961.7</v>
+        <v>-6944.9</v>
       </c>
       <c r="E189" s="6">
-        <v>114377.4</v>
+        <v>112000</v>
       </c>
       <c r="F189" s="6">
         <v>28192.2</v>
@@ -17005,10 +17031,10 @@
         <v>190.8</v>
       </c>
       <c r="D190" s="6">
-        <v>-6993.8</v>
+        <v>-6974.7</v>
       </c>
       <c r="E190" s="6">
-        <v>117113.5</v>
+        <v>114755.2</v>
       </c>
       <c r="F190" s="6">
         <v>27938.5</v>
@@ -17024,15 +17050,17 @@
       <c r="A191" s="5">
         <v>44805</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>47</v>
+      </c>
       <c r="C191" s="6">
         <v>191</v>
       </c>
       <c r="D191" s="6">
-        <v>-7025.8</v>
+        <v>-7004.5</v>
       </c>
       <c r="E191" s="6">
-        <v>119827.4</v>
+        <v>117490.4</v>
       </c>
       <c r="F191" s="6">
         <v>27854.7</v>
@@ -17053,19 +17081,43 @@
         <v>191.2</v>
       </c>
       <c r="D192" s="6">
-        <v>-7056.7</v>
+        <v>-7033.2</v>
       </c>
       <c r="E192" s="6">
-        <v>122137.8</v>
+        <v>119824.3</v>
       </c>
       <c r="F192" s="6">
         <v>27868.6</v>
       </c>
       <c r="G192" s="6">
-        <v>-1218834</v>
+        <v>-1218226.1000000001</v>
       </c>
       <c r="H192" s="6">
-        <v>35576891.100000001</v>
+        <v>35577499</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6">
+        <v>191.4</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-7062.7</v>
+      </c>
+      <c r="E193" s="6">
+        <v>121755.4</v>
+      </c>
+      <c r="F193" s="6">
+        <v>27874.2</v>
+      </c>
+      <c r="G193" s="6">
+        <v>-1221492.8</v>
+      </c>
+      <c r="H193" s="6">
+        <v>35666093.299999997</v>
       </c>
     </row>
   </sheetData>
@@ -17081,12 +17133,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A192" sqref="A192:XFD192"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:XFD192"/>
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A193" sqref="A193:XFD193"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21295,7 +21347,7 @@
         <v>1229563.8</v>
       </c>
       <c r="F162" s="6">
-        <v>1051</v>
+        <v>1103.5</v>
       </c>
       <c r="G162" s="6">
         <v>-445437.3</v>
@@ -21321,7 +21373,7 @@
         <v>860855.8</v>
       </c>
       <c r="F163" s="6">
-        <v>1040.5</v>
+        <v>1092.5</v>
       </c>
       <c r="G163" s="6">
         <v>-780583.7</v>
@@ -21347,7 +21399,7 @@
         <v>900304.4</v>
       </c>
       <c r="F164" s="6">
-        <v>1144.5</v>
+        <v>1201.7</v>
       </c>
       <c r="G164" s="6">
         <v>5509.4</v>
@@ -21373,7 +21425,7 @@
         <v>1053329.3</v>
       </c>
       <c r="F165" s="6">
-        <v>1348.2</v>
+        <v>1415.6</v>
       </c>
       <c r="G165" s="6">
         <v>293700.2</v>
@@ -21399,7 +21451,7 @@
         <v>1174631</v>
       </c>
       <c r="F166" s="6">
-        <v>3283.6</v>
+        <v>3447.8</v>
       </c>
       <c r="G166" s="6">
         <v>240851.7</v>
@@ -21416,16 +21468,16 @@
         <v>10</v>
       </c>
       <c r="C167" s="6">
-        <v>2530</v>
+        <v>2680</v>
       </c>
       <c r="D167" s="6">
         <v>-17328.900000000001</v>
       </c>
       <c r="E167" s="6">
-        <v>1230689.8999999999</v>
+        <v>1230975</v>
       </c>
       <c r="F167" s="6">
-        <v>3542</v>
+        <v>3939.6</v>
       </c>
       <c r="G167" s="6">
         <v>-17069.5</v>
@@ -21442,16 +21494,16 @@
         <v>12</v>
       </c>
       <c r="C168" s="6">
-        <v>2572.6999999999998</v>
+        <v>2754.5</v>
       </c>
       <c r="D168" s="6">
-        <v>-23421.1</v>
+        <v>-23426.5</v>
       </c>
       <c r="E168" s="6">
-        <v>1238120.7</v>
+        <v>1238079.5</v>
       </c>
       <c r="F168" s="6">
-        <v>3601.8</v>
+        <v>4049.2</v>
       </c>
       <c r="G168" s="6">
         <v>-44499.1</v>
@@ -21468,16 +21520,16 @@
         <v>12</v>
       </c>
       <c r="C169" s="6">
-        <v>2610</v>
+        <v>2740</v>
       </c>
       <c r="D169" s="6">
-        <v>-29453.1</v>
+        <v>-29452.1</v>
       </c>
       <c r="E169" s="6">
-        <v>1231760.6000000001</v>
+        <v>1231541.8999999999</v>
       </c>
       <c r="F169" s="6">
-        <v>3654</v>
+        <v>4027.8</v>
       </c>
       <c r="G169" s="6">
         <v>-55336</v>
@@ -21494,16 +21546,16 @@
         <v>11</v>
       </c>
       <c r="C170" s="6">
-        <v>2608.3000000000002</v>
+        <v>2666.7</v>
       </c>
       <c r="D170" s="6">
-        <v>-36627.300000000003</v>
+        <v>-36620.800000000003</v>
       </c>
       <c r="E170" s="6">
-        <v>1196587.7</v>
+        <v>1197435.8999999999</v>
       </c>
       <c r="F170" s="6">
-        <v>3651.7</v>
+        <v>3920</v>
       </c>
       <c r="G170" s="6">
         <v>-66973.399999999994</v>
@@ -21520,22 +21572,22 @@
         <v>11</v>
       </c>
       <c r="C171" s="6">
-        <v>2616.6999999999998</v>
+        <v>2600</v>
       </c>
       <c r="D171" s="6">
-        <v>-39139.5</v>
+        <v>-39167.300000000003</v>
       </c>
       <c r="E171" s="6">
-        <v>1158886.3</v>
+        <v>1159009</v>
       </c>
       <c r="F171" s="6">
-        <v>3663.3</v>
+        <v>3822</v>
       </c>
       <c r="G171" s="6">
         <v>-74341.600000000006</v>
       </c>
       <c r="H171" s="6">
-        <v>2810367.2</v>
+        <v>2887962.7</v>
       </c>
     </row>
     <row r="172" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21546,22 +21598,22 @@
         <v>13</v>
       </c>
       <c r="C172" s="6">
-        <v>2618.1999999999998</v>
+        <v>2527.3000000000002</v>
       </c>
       <c r="D172" s="6">
-        <v>-58754.8</v>
+        <v>-58761</v>
       </c>
       <c r="E172" s="6">
-        <v>1093918.8</v>
+        <v>1094441</v>
       </c>
       <c r="F172" s="6">
-        <v>3665.5</v>
+        <v>3538.2</v>
       </c>
       <c r="G172" s="6">
-        <v>-125121.4</v>
+        <v>-128576.1</v>
       </c>
       <c r="H172" s="6">
-        <v>2650987.7000000002</v>
+        <v>2739400.7</v>
       </c>
     </row>
     <row r="173" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21572,22 +21624,22 @@
         <v>13</v>
       </c>
       <c r="C173" s="6">
-        <v>2590.9</v>
+        <v>2500</v>
       </c>
       <c r="D173" s="6">
-        <v>-22184.400000000001</v>
+        <v>-22195</v>
       </c>
       <c r="E173" s="6">
-        <v>1119700</v>
+        <v>1120206.6000000001</v>
       </c>
       <c r="F173" s="6">
-        <v>3627.3</v>
+        <v>3675</v>
       </c>
       <c r="G173" s="6">
-        <v>-1180.3</v>
+        <v>-1219.5999999999999</v>
       </c>
       <c r="H173" s="6">
-        <v>2807794.5</v>
+        <v>2903654.9</v>
       </c>
     </row>
     <row r="174" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21598,22 +21650,22 @@
         <v>15</v>
       </c>
       <c r="C174" s="6">
-        <v>2546.1999999999998</v>
+        <v>2469.1999999999998</v>
       </c>
       <c r="D174" s="6">
-        <v>-42008.4</v>
+        <v>-42027.4</v>
       </c>
       <c r="E174" s="6">
-        <v>1133749.7</v>
+        <v>1133869.3999999999</v>
       </c>
       <c r="F174" s="6">
-        <v>3564.6</v>
+        <v>3629.8</v>
       </c>
       <c r="G174" s="6">
-        <v>-57503.199999999997</v>
+        <v>-59466.400000000001</v>
       </c>
       <c r="H174" s="6">
-        <v>2872484</v>
+        <v>2987651.4</v>
       </c>
     </row>
     <row r="175" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21624,22 +21676,22 @@
         <v>16</v>
       </c>
       <c r="C175" s="6">
-        <v>2500</v>
+        <v>2423.1</v>
       </c>
       <c r="D175" s="6">
-        <v>-42960.800000000003</v>
+        <v>-42965.4</v>
       </c>
       <c r="E175" s="6">
-        <v>1139829</v>
+        <v>1139631.1000000001</v>
       </c>
       <c r="F175" s="6">
-        <v>3500</v>
+        <v>3561.9</v>
       </c>
       <c r="G175" s="6">
-        <v>-58828</v>
+        <v>-61186.6</v>
       </c>
       <c r="H175" s="6">
-        <v>2934581.1</v>
+        <v>3026088.9</v>
       </c>
     </row>
     <row r="176" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21650,22 +21702,22 @@
         <v>17</v>
       </c>
       <c r="C176" s="6">
-        <v>2466.6999999999998</v>
+        <v>2400</v>
       </c>
       <c r="D176" s="6">
-        <v>-43450.400000000001</v>
+        <v>-43442.8</v>
       </c>
       <c r="E176" s="6">
-        <v>1143238.3</v>
+        <v>1142797.7</v>
       </c>
       <c r="F176" s="6">
-        <v>3453.3</v>
+        <v>3528</v>
       </c>
       <c r="G176" s="6">
-        <v>-60099.7</v>
+        <v>-61973.8</v>
       </c>
       <c r="H176" s="6">
-        <v>2937222.1</v>
+        <v>3023778.4</v>
       </c>
     </row>
     <row r="177" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21676,22 +21728,22 @@
         <v>18</v>
       </c>
       <c r="C177" s="6">
-        <v>2425</v>
+        <v>2362.5</v>
       </c>
       <c r="D177" s="6">
-        <v>-43841.8</v>
+        <v>-43824.9</v>
       </c>
       <c r="E177" s="6">
-        <v>1087862.5</v>
+        <v>1087932.3999999999</v>
       </c>
       <c r="F177" s="6">
-        <v>3395</v>
+        <v>3472.9</v>
       </c>
       <c r="G177" s="6">
-        <v>-60153.8</v>
+        <v>-61926.5</v>
       </c>
       <c r="H177" s="6">
-        <v>2884113.6</v>
+        <v>2919246.4</v>
       </c>
     </row>
     <row r="178" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21702,22 +21754,22 @@
         <v>22</v>
       </c>
       <c r="C178" s="6">
-        <v>2364.6999999999998</v>
+        <v>2305.9</v>
       </c>
       <c r="D178" s="6">
-        <v>-41968.5</v>
+        <v>-41971.199999999997</v>
       </c>
       <c r="E178" s="6">
-        <v>1119342.2</v>
+        <v>1119301.8</v>
       </c>
       <c r="F178" s="6">
-        <v>3310.6</v>
+        <v>3389.6</v>
       </c>
       <c r="G178" s="6">
-        <v>-59066.2</v>
+        <v>-59785.7</v>
       </c>
       <c r="H178" s="6">
-        <v>2975781.7</v>
+        <v>3001961.1</v>
       </c>
     </row>
     <row r="179" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21728,22 +21780,22 @@
         <v>23</v>
       </c>
       <c r="C179" s="6">
-        <v>2322.1999999999998</v>
+        <v>2266.6999999999998</v>
       </c>
       <c r="D179" s="6">
-        <v>-43269.3</v>
+        <v>-43267.8</v>
       </c>
       <c r="E179" s="6">
-        <v>1128163.3999999999</v>
+        <v>1128101</v>
       </c>
       <c r="F179" s="6">
-        <v>3251.1</v>
+        <v>3332</v>
       </c>
       <c r="G179" s="6">
-        <v>-61552.9</v>
+        <v>-62094.5</v>
       </c>
       <c r="H179" s="6">
-        <v>3037955.7</v>
+        <v>3059489.3</v>
       </c>
     </row>
     <row r="180" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21754,22 +21806,22 @@
         <v>23</v>
       </c>
       <c r="C180" s="6">
-        <v>2272.6999999999998</v>
+        <v>2227.3000000000002</v>
       </c>
       <c r="D180" s="6">
-        <v>-43697.5</v>
+        <v>-43695.1</v>
       </c>
       <c r="E180" s="6">
-        <v>1124812.3</v>
+        <v>1124978.7</v>
       </c>
       <c r="F180" s="6">
-        <v>3181.8</v>
+        <v>3274.1</v>
       </c>
       <c r="G180" s="6">
-        <v>-63467.4</v>
+        <v>-63917.3</v>
       </c>
       <c r="H180" s="6">
-        <v>3031897.2</v>
+        <v>3035931.8</v>
       </c>
     </row>
     <row r="181" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21780,22 +21832,22 @@
         <v>25</v>
       </c>
       <c r="C181" s="6">
-        <v>2217.4</v>
+        <v>2173.9</v>
       </c>
       <c r="D181" s="6">
-        <v>-43654.9</v>
+        <v>-43661.3</v>
       </c>
       <c r="E181" s="6">
-        <v>1174476.6000000001</v>
+        <v>1174355.1000000001</v>
       </c>
       <c r="F181" s="6">
-        <v>3104.3</v>
+        <v>3195.7</v>
       </c>
       <c r="G181" s="6">
-        <v>-63334.5</v>
+        <v>-63418.8</v>
       </c>
       <c r="H181" s="6">
-        <v>3102769.2</v>
+        <v>3119324.2</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21806,22 +21858,22 @@
         <v>27</v>
       </c>
       <c r="C182" s="6">
-        <v>2187</v>
+        <v>2130.4</v>
       </c>
       <c r="D182" s="6">
-        <v>-45673.599999999999</v>
+        <v>-45668.800000000003</v>
       </c>
       <c r="E182" s="6">
-        <v>1157208.6000000001</v>
+        <v>1157319.8999999999</v>
       </c>
       <c r="F182" s="6">
-        <v>3061.7</v>
+        <v>2982.6</v>
       </c>
       <c r="G182" s="6">
-        <v>-64808.5</v>
+        <v>-65154.3</v>
       </c>
       <c r="H182" s="6">
-        <v>3051989.7</v>
+        <v>3052307.3</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21832,22 +21884,22 @@
         <v>27</v>
       </c>
       <c r="C183" s="6">
-        <v>2138</v>
+        <v>2058</v>
       </c>
       <c r="D183" s="6">
-        <v>-45092</v>
+        <v>-45096.4</v>
       </c>
       <c r="E183" s="6">
-        <v>1114086.8</v>
+        <v>1114324.6000000001</v>
       </c>
       <c r="F183" s="6">
-        <v>2993.2</v>
+        <v>2881.2</v>
       </c>
       <c r="G183" s="6">
-        <v>-63741.4</v>
+        <v>-63748.1</v>
       </c>
       <c r="H183" s="6">
-        <v>2864533.5</v>
+        <v>2864917.3</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21858,22 +21910,22 @@
         <v>33</v>
       </c>
       <c r="C184" s="6">
-        <v>2055.6</v>
+        <v>1981.5</v>
       </c>
       <c r="D184" s="6">
-        <v>-43498.6</v>
+        <v>-43507.9</v>
       </c>
       <c r="E184" s="6">
-        <v>1094449.8</v>
+        <v>1093635.7</v>
       </c>
       <c r="F184" s="6">
-        <v>2877.8</v>
+        <v>2774.1</v>
       </c>
       <c r="G184" s="6">
-        <v>-59820.4</v>
+        <v>-59828.4</v>
       </c>
       <c r="H184" s="6">
-        <v>2888562.4</v>
+        <v>2888893.2</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21884,22 +21936,22 @@
         <v>34</v>
       </c>
       <c r="C185" s="6">
-        <v>1963</v>
+        <v>1925.9</v>
       </c>
       <c r="D185" s="6">
-        <v>-42817.3</v>
+        <v>-42785.5</v>
       </c>
       <c r="E185" s="6">
-        <v>1133039.8999999999</v>
+        <v>1132989.3</v>
       </c>
       <c r="F185" s="6">
-        <v>2748.1</v>
+        <v>2696.3</v>
       </c>
       <c r="G185" s="6">
-        <v>-60316.2</v>
+        <v>-60323.1</v>
       </c>
       <c r="H185" s="6">
-        <v>3024964.7</v>
+        <v>3024676.8</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21910,22 +21962,22 @@
         <v>35</v>
       </c>
       <c r="C186" s="6">
-        <v>1887.9</v>
+        <v>1857.6</v>
       </c>
       <c r="D186" s="6">
-        <v>-44415.7</v>
+        <v>-44413.7</v>
       </c>
       <c r="E186" s="6">
-        <v>921683.7</v>
+        <v>922258.7</v>
       </c>
       <c r="F186" s="6">
-        <v>2643</v>
+        <v>2600.6</v>
       </c>
       <c r="G186" s="6">
-        <v>-63158.1</v>
+        <v>-63152.1</v>
       </c>
       <c r="H186" s="6">
-        <v>2487061.9</v>
+        <v>2487189.9</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21936,22 +21988,22 @@
         <v>38</v>
       </c>
       <c r="C187" s="6">
-        <v>1847.1</v>
+        <v>1817.6</v>
       </c>
       <c r="D187" s="6">
-        <v>-36202.699999999997</v>
+        <v>-36225.300000000003</v>
       </c>
       <c r="E187" s="6">
-        <v>1076130.2</v>
+        <v>1075758.3999999999</v>
       </c>
       <c r="F187" s="6">
-        <v>2585.9</v>
+        <v>2544.6999999999998</v>
       </c>
       <c r="G187" s="6">
-        <v>-51922</v>
+        <v>-51924.7</v>
       </c>
       <c r="H187" s="6">
-        <v>2828163.1</v>
+        <v>2826654.4</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21962,22 +22014,22 @@
         <v>38</v>
       </c>
       <c r="C188" s="6">
-        <v>1805.7</v>
+        <v>1777.1</v>
       </c>
       <c r="D188" s="6">
-        <v>-42396</v>
+        <v>-42381.3</v>
       </c>
       <c r="E188" s="6">
-        <v>1120342.5</v>
+        <v>1121264.7</v>
       </c>
       <c r="F188" s="6">
-        <v>2528</v>
+        <v>2488</v>
       </c>
       <c r="G188" s="6">
-        <v>-59220.3</v>
+        <v>-59188.7</v>
       </c>
       <c r="H188" s="6">
-        <v>3106331</v>
+        <v>3105074.8</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21988,22 +22040,22 @@
         <v>38</v>
       </c>
       <c r="C189" s="6">
-        <v>1765.8</v>
+        <v>1739.5</v>
       </c>
       <c r="D189" s="6">
-        <v>-44270.2</v>
+        <v>-44306.7</v>
       </c>
       <c r="E189" s="6">
-        <v>1143172.2</v>
+        <v>1074972.6000000001</v>
       </c>
       <c r="F189" s="6">
-        <v>2472.1</v>
+        <v>2435.3000000000002</v>
       </c>
       <c r="G189" s="6">
-        <v>-65240.1</v>
+        <v>-65213.7</v>
       </c>
       <c r="H189" s="6">
-        <v>3135030.9</v>
+        <v>3090216.3</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22014,46 +22066,48 @@
         <v>39</v>
       </c>
       <c r="C190" s="6">
-        <v>1734.2</v>
+        <v>1723.7</v>
       </c>
       <c r="D190" s="6">
-        <v>-45276.2</v>
+        <v>-42575.1</v>
       </c>
       <c r="E190" s="6">
-        <v>1163796</v>
+        <v>1075275</v>
       </c>
       <c r="F190" s="6">
-        <v>2427.9</v>
+        <v>2413.1999999999998</v>
       </c>
       <c r="G190" s="6">
-        <v>-66040.399999999994</v>
+        <v>-65096.4</v>
       </c>
       <c r="H190" s="6">
-        <v>3161250.5</v>
+        <v>3098990</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5">
         <v>44805</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>40</v>
+      </c>
       <c r="C191" s="6">
-        <v>1731.6</v>
+        <v>1710.5</v>
       </c>
       <c r="D191" s="6">
-        <v>-46185.2</v>
+        <v>-42672.3</v>
       </c>
       <c r="E191" s="6">
-        <v>1183410.7</v>
+        <v>1147318.3999999999</v>
       </c>
       <c r="F191" s="6">
-        <v>2536.8000000000002</v>
+        <v>2394.6999999999998</v>
       </c>
       <c r="G191" s="6">
-        <v>-66792.5</v>
+        <v>-65477</v>
       </c>
       <c r="H191" s="6">
-        <v>3190855</v>
+        <v>3124513</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22062,22 +22116,46 @@
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6">
-        <v>1734.6</v>
+        <v>1701.3</v>
       </c>
       <c r="D192" s="6">
-        <v>-47057.599999999999</v>
+        <v>-45622.400000000001</v>
       </c>
       <c r="E192" s="6">
-        <v>1204003.2</v>
+        <v>1168046</v>
       </c>
       <c r="F192" s="6">
-        <v>2551.6</v>
+        <v>2492.4</v>
       </c>
       <c r="G192" s="6">
-        <v>-67620.3</v>
+        <v>-66214.399999999994</v>
       </c>
       <c r="H192" s="6">
-        <v>3222747.9</v>
+        <v>3155501.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6">
+        <v>1703.8</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-46539.5</v>
+      </c>
+      <c r="E193" s="6">
+        <v>1189656.5</v>
+      </c>
+      <c r="F193" s="6">
+        <v>2506.1999999999998</v>
+      </c>
+      <c r="G193" s="6">
+        <v>-67071.7</v>
+      </c>
+      <c r="H193" s="6">
+        <v>3188678.4</v>
       </c>
     </row>
   </sheetData>
@@ -22093,12 +22171,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A192" sqref="A192:XFD192"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:XFD192"/>
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A193" sqref="A193:XFD193"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -26792,7 +26870,7 @@
         <v>44</v>
       </c>
       <c r="C181" s="6">
-        <v>2178.4</v>
+        <v>2152.5</v>
       </c>
       <c r="D181" s="6">
         <v>-89822</v>
@@ -26818,7 +26896,7 @@
         <v>47</v>
       </c>
       <c r="C182" s="6">
-        <v>2204.5</v>
+        <v>2152.5</v>
       </c>
       <c r="D182" s="6">
         <v>-90430.1</v>
@@ -26844,7 +26922,7 @@
         <v>51</v>
       </c>
       <c r="C183" s="6">
-        <v>2208.9</v>
+        <v>2141.8000000000002</v>
       </c>
       <c r="D183" s="6">
         <v>-89872.1</v>
@@ -26870,7 +26948,7 @@
         <v>57</v>
       </c>
       <c r="C184" s="6">
-        <v>2175.8000000000002</v>
+        <v>2109.6</v>
       </c>
       <c r="D184" s="6">
         <v>-88623.2</v>
@@ -26896,7 +26974,7 @@
         <v>61</v>
       </c>
       <c r="C185" s="6">
-        <v>2110.5</v>
+        <v>2025.3</v>
       </c>
       <c r="D185" s="6">
         <v>-87472.9</v>
@@ -26922,13 +27000,13 @@
         <v>66</v>
       </c>
       <c r="C186" s="6">
-        <v>2026.1</v>
+        <v>1924</v>
       </c>
       <c r="D186" s="6">
         <v>-89394.8</v>
       </c>
       <c r="E186" s="6">
-        <v>1091220.7</v>
+        <v>1070320.6000000001</v>
       </c>
       <c r="F186" s="6">
         <v>7452.2</v>
@@ -26948,13 +27026,13 @@
         <v>70</v>
       </c>
       <c r="C187" s="6">
-        <v>1924.8</v>
+        <v>1827.8</v>
       </c>
       <c r="D187" s="6">
-        <v>-91584.7</v>
+        <v>-89830.5</v>
       </c>
       <c r="E187" s="6">
-        <v>1117048</v>
+        <v>1091985.8</v>
       </c>
       <c r="F187" s="6">
         <v>7228.6</v>
@@ -26974,13 +27052,13 @@
         <v>73</v>
       </c>
       <c r="C188" s="6">
-        <v>1828.5</v>
+        <v>1736.4</v>
       </c>
       <c r="D188" s="6">
-        <v>-93808.6</v>
+        <v>-91703.9</v>
       </c>
       <c r="E188" s="6">
-        <v>1143923.5</v>
+        <v>1114885</v>
       </c>
       <c r="F188" s="6">
         <v>7011.8</v>
@@ -27000,13 +27078,13 @@
         <v>75</v>
       </c>
       <c r="C189" s="6">
-        <v>1764.5</v>
+        <v>1675.6</v>
       </c>
       <c r="D189" s="6">
-        <v>-96123.199999999997</v>
+        <v>-93683.1</v>
       </c>
       <c r="E189" s="6">
-        <v>1171318.6000000001</v>
+        <v>1138496.3</v>
       </c>
       <c r="F189" s="6">
         <v>6752.3</v>
@@ -27026,13 +27104,13 @@
         <v>78</v>
       </c>
       <c r="C190" s="6">
-        <v>1720.4</v>
+        <v>1633.7</v>
       </c>
       <c r="D190" s="6">
-        <v>-98484.2</v>
+        <v>-95734.1</v>
       </c>
       <c r="E190" s="6">
-        <v>1198426</v>
+        <v>1162025.6000000001</v>
       </c>
       <c r="F190" s="6">
         <v>6549.8</v>
@@ -27048,15 +27126,17 @@
       <c r="A191" s="5">
         <v>44805</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>76</v>
+      </c>
       <c r="C191" s="6">
-        <v>1687.7</v>
+        <v>1602.7</v>
       </c>
       <c r="D191" s="6">
-        <v>-100823.9</v>
+        <v>-97781</v>
       </c>
       <c r="E191" s="6">
-        <v>1224183.1000000001</v>
+        <v>1184447.3</v>
       </c>
       <c r="F191" s="6">
         <v>6386</v>
@@ -27074,13 +27154,13 @@
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6">
-        <v>1654</v>
+        <v>1586.7</v>
       </c>
       <c r="D192" s="6">
-        <v>-103052.6</v>
+        <v>-99737.5</v>
       </c>
       <c r="E192" s="6">
-        <v>1250141.7</v>
+        <v>1208470.5</v>
       </c>
       <c r="F192" s="6">
         <v>6258.3</v>
@@ -27090,6 +27170,30 @@
       </c>
       <c r="H192" s="6">
         <v>7220033.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6">
+        <v>1570.8</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-101831.7</v>
+      </c>
+      <c r="E193" s="6">
+        <v>1226020.3999999999</v>
+      </c>
+      <c r="F193" s="6">
+        <v>6133.1</v>
+      </c>
+      <c r="G193" s="6">
+        <v>-375389.4</v>
+      </c>
+      <c r="H193" s="6">
+        <v>7310762</v>
       </c>
     </row>
   </sheetData>
@@ -27105,12 +27209,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A192" sqref="A192:XFD192"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:XFD192"/>
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A193" sqref="A193:XFD193"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -31923,7 +32027,7 @@
         <v>-535346.4</v>
       </c>
       <c r="H185" s="6">
-        <v>14577613.699999999</v>
+        <v>14406948.9</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -31943,13 +32047,13 @@
         <v>35583.4</v>
       </c>
       <c r="F186" s="6">
-        <v>11757.2</v>
+        <v>11733.2</v>
       </c>
       <c r="G186" s="6">
-        <v>-539722.80000000005</v>
+        <v>-533669.5</v>
       </c>
       <c r="H186" s="6">
-        <v>14743320.1</v>
+        <v>14577271.9</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -31969,13 +32073,13 @@
         <v>35565.300000000003</v>
       </c>
       <c r="F187" s="6">
-        <v>11545.5</v>
+        <v>11522</v>
       </c>
       <c r="G187" s="6">
-        <v>-548587.19999999995</v>
+        <v>-542948.5</v>
       </c>
       <c r="H187" s="6">
-        <v>14979828.5</v>
+        <v>14817820.1</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -31992,16 +32096,16 @@
         <v>-1024</v>
       </c>
       <c r="E188" s="6">
-        <v>35915.9</v>
+        <v>35407.1</v>
       </c>
       <c r="F188" s="6">
-        <v>11337.7</v>
+        <v>11314.6</v>
       </c>
       <c r="G188" s="6">
-        <v>-560174.4</v>
+        <v>-554943.5</v>
       </c>
       <c r="H188" s="6">
-        <v>15213293.4</v>
+        <v>15054899.5</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32015,19 +32119,19 @@
         <v>19.7</v>
       </c>
       <c r="D189" s="6">
-        <v>-1034.0999999999999</v>
+        <v>-1019.4</v>
       </c>
       <c r="E189" s="6">
-        <v>36277.5</v>
+        <v>35365.5</v>
       </c>
       <c r="F189" s="6">
-        <v>11133.6</v>
+        <v>11111</v>
       </c>
       <c r="G189" s="6">
-        <v>-571749.4</v>
+        <v>-566641.5</v>
       </c>
       <c r="H189" s="6">
-        <v>15432031.4</v>
+        <v>15277135.5</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32041,43 +32145,45 @@
         <v>19.7</v>
       </c>
       <c r="D190" s="6">
-        <v>-1044.5</v>
+        <v>-1018.2</v>
       </c>
       <c r="E190" s="6">
-        <v>36649.699999999997</v>
+        <v>35764</v>
       </c>
       <c r="F190" s="6">
-        <v>11022.3</v>
+        <v>10999.8</v>
       </c>
       <c r="G190" s="6">
-        <v>-582870</v>
+        <v>-577881.19999999995</v>
       </c>
       <c r="H190" s="6">
-        <v>15642766.4</v>
+        <v>15491242.9</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5">
         <v>44805</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>75</v>
+      </c>
       <c r="C191" s="6">
         <v>19.7</v>
       </c>
       <c r="D191" s="6">
-        <v>-1055.2</v>
+        <v>-1029.7</v>
       </c>
       <c r="E191" s="6">
-        <v>37012.6</v>
+        <v>36152.400000000001</v>
       </c>
       <c r="F191" s="6">
-        <v>10912.1</v>
+        <v>10889.8</v>
       </c>
       <c r="G191" s="6">
-        <v>-593783.6</v>
+        <v>-588910</v>
       </c>
       <c r="H191" s="6">
-        <v>15834651.6</v>
+        <v>15686401.6</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32089,19 +32195,43 @@
         <v>19.7</v>
       </c>
       <c r="D192" s="6">
-        <v>-1065.5999999999999</v>
+        <v>-1040.9000000000001</v>
       </c>
       <c r="E192" s="6">
-        <v>37386.199999999997</v>
+        <v>36550.800000000003</v>
       </c>
       <c r="F192" s="6">
-        <v>10857.5</v>
+        <v>10835.4</v>
       </c>
       <c r="G192" s="6">
-        <v>-604373.19999999995</v>
+        <v>-599012.6</v>
       </c>
       <c r="H192" s="6">
-        <v>16022876.4</v>
+        <v>15878372.699999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-1052.3</v>
+      </c>
+      <c r="E193" s="6">
+        <v>36978.6</v>
+      </c>
+      <c r="F193" s="6">
+        <v>10781.2</v>
+      </c>
+      <c r="G193" s="6">
+        <v>-609071.9</v>
+      </c>
+      <c r="H193" s="6">
+        <v>16077892.1</v>
       </c>
     </row>
   </sheetData>
@@ -32117,12 +32247,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A192" sqref="A192:XFD192"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:XFD192"/>
+      <selection activeCell="A193" sqref="A193:XFD193"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -36559,7 +36689,7 @@
         <v>2036.3</v>
       </c>
       <c r="D171" s="6">
-        <v>-36436.400000000001</v>
+        <v>-36419.1</v>
       </c>
       <c r="E171" s="6">
         <v>574493.4</v>
@@ -36585,7 +36715,7 @@
         <v>2020</v>
       </c>
       <c r="D172" s="6">
-        <v>-36278.800000000003</v>
+        <v>-36261.599999999999</v>
       </c>
       <c r="E172" s="6">
         <v>556974.6</v>
@@ -36611,7 +36741,7 @@
         <v>2003.9</v>
       </c>
       <c r="D173" s="6">
-        <v>-35225.300000000003</v>
+        <v>-35208.5</v>
       </c>
       <c r="E173" s="6">
         <v>553346.6</v>
@@ -36637,10 +36767,10 @@
         <v>1987.8</v>
       </c>
       <c r="D174" s="6">
-        <v>-35048.300000000003</v>
+        <v>-35031.599999999999</v>
       </c>
       <c r="E174" s="6">
-        <v>599465.19999999995</v>
+        <v>611153.1</v>
       </c>
       <c r="F174" s="6">
         <v>5986.8</v>
@@ -36663,10 +36793,10 @@
         <v>1968</v>
       </c>
       <c r="D175" s="6">
-        <v>-38026.400000000001</v>
+        <v>-38749.300000000003</v>
       </c>
       <c r="E175" s="6">
-        <v>615465.19999999995</v>
+        <v>615452.9</v>
       </c>
       <c r="F175" s="6">
         <v>5974.8</v>
@@ -36689,10 +36819,10 @@
         <v>1958.1</v>
       </c>
       <c r="D176" s="6">
-        <v>-39099.9</v>
+        <v>-39080.5</v>
       </c>
       <c r="E176" s="6">
-        <v>599861</v>
+        <v>600046.1</v>
       </c>
       <c r="F176" s="6">
         <v>5915.1</v>
@@ -36715,10 +36845,10 @@
         <v>1954.2</v>
       </c>
       <c r="D177" s="6">
-        <v>-38165.699999999997</v>
+        <v>-38159.300000000003</v>
       </c>
       <c r="E177" s="6">
-        <v>606112.1</v>
+        <v>606082.69999999995</v>
       </c>
       <c r="F177" s="6">
         <v>5796.8</v>
@@ -36741,10 +36871,10 @@
         <v>1936.6</v>
       </c>
       <c r="D178" s="6">
-        <v>-38621.300000000003</v>
+        <v>-38581.800000000003</v>
       </c>
       <c r="E178" s="6">
-        <v>615092</v>
+        <v>615150</v>
       </c>
       <c r="F178" s="6">
         <v>5564.9</v>
@@ -36767,10 +36897,10 @@
         <v>1839.8</v>
       </c>
       <c r="D179" s="6">
-        <v>-39252.300000000003</v>
+        <v>-39198.1</v>
       </c>
       <c r="E179" s="6">
-        <v>626965.30000000005</v>
+        <v>626890</v>
       </c>
       <c r="F179" s="6">
         <v>5286.7</v>
@@ -36793,10 +36923,10 @@
         <v>1729.4</v>
       </c>
       <c r="D180" s="6">
-        <v>-40070</v>
+        <v>-39986.199999999997</v>
       </c>
       <c r="E180" s="6">
-        <v>654713.80000000005</v>
+        <v>655241.1</v>
       </c>
       <c r="F180" s="6">
         <v>4969.5</v>
@@ -36816,13 +36946,13 @@
         <v>25</v>
       </c>
       <c r="C181" s="6">
-        <v>1677.5</v>
+        <v>1642.9</v>
       </c>
       <c r="D181" s="6">
-        <v>-41893.599999999999</v>
+        <v>-41836.300000000003</v>
       </c>
       <c r="E181" s="6">
-        <v>656512.9</v>
+        <v>656931.5</v>
       </c>
       <c r="F181" s="6">
         <v>4671.3</v>
@@ -36831,7 +36961,7 @@
         <v>-106541.2</v>
       </c>
       <c r="H181" s="6">
-        <v>5294562.3</v>
+        <v>5280650</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -36842,22 +36972,22 @@
         <v>25</v>
       </c>
       <c r="C182" s="6">
-        <v>1644</v>
+        <v>1593.6</v>
       </c>
       <c r="D182" s="6">
-        <v>-42059.1</v>
+        <v>-41986.2</v>
       </c>
       <c r="E182" s="6">
-        <v>650496.1</v>
+        <v>650281.4</v>
       </c>
       <c r="F182" s="6">
-        <v>4461.1000000000004</v>
+        <v>4437.7</v>
       </c>
       <c r="G182" s="6">
-        <v>-106588</v>
+        <v>-106308</v>
       </c>
       <c r="H182" s="6">
-        <v>5364318.0999999996</v>
+        <v>5205622</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -36868,22 +36998,22 @@
         <v>25</v>
       </c>
       <c r="C183" s="6">
-        <v>1627.5</v>
+        <v>1561.8</v>
       </c>
       <c r="D183" s="6">
-        <v>-41723.699999999997</v>
+        <v>-41602.699999999997</v>
       </c>
       <c r="E183" s="6">
-        <v>596088.9</v>
+        <v>595621.80000000005</v>
       </c>
       <c r="F183" s="6">
-        <v>4374.1000000000004</v>
+        <v>4282.3999999999996</v>
       </c>
       <c r="G183" s="6">
-        <v>-108208.3</v>
+        <v>-105007.1</v>
       </c>
       <c r="H183" s="6">
-        <v>5178026.4000000004</v>
+        <v>5022545</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -36894,22 +37024,22 @@
         <v>25</v>
       </c>
       <c r="C184" s="6">
-        <v>1611.3</v>
+        <v>1546.2</v>
       </c>
       <c r="D184" s="6">
-        <v>-38276</v>
+        <v>-38143.9</v>
       </c>
       <c r="E184" s="6">
-        <v>624645.9</v>
+        <v>625203.6</v>
       </c>
       <c r="F184" s="6">
-        <v>4286.6000000000004</v>
+        <v>4166.8</v>
       </c>
       <c r="G184" s="6">
-        <v>-104659.4</v>
+        <v>-101516.7</v>
       </c>
       <c r="H184" s="6">
-        <v>5160550.3</v>
+        <v>5032262</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -36920,22 +37050,22 @@
         <v>26</v>
       </c>
       <c r="C185" s="6">
-        <v>1595.1</v>
+        <v>1530.7</v>
       </c>
       <c r="D185" s="6">
-        <v>-40149.800000000003</v>
+        <v>-40078.400000000001</v>
       </c>
       <c r="E185" s="6">
-        <v>639717.4</v>
+        <v>639667.1</v>
       </c>
       <c r="F185" s="6">
-        <v>4200.8999999999996</v>
+        <v>4083.4</v>
       </c>
       <c r="G185" s="6">
-        <v>-104514.7</v>
+        <v>-101916.6</v>
       </c>
       <c r="H185" s="6">
-        <v>5188888.0999999996</v>
+        <v>5120796</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -36946,22 +37076,22 @@
         <v>28</v>
       </c>
       <c r="C186" s="6">
-        <v>1579.2</v>
+        <v>1500.1</v>
       </c>
       <c r="D186" s="6">
-        <v>-41159.699999999997</v>
+        <v>-41046.6</v>
       </c>
       <c r="E186" s="6">
-        <v>644274.4</v>
+        <v>644096.19999999995</v>
       </c>
       <c r="F186" s="6">
-        <v>4116.8999999999996</v>
+        <v>4001.8</v>
       </c>
       <c r="G186" s="6">
-        <v>-105298.8</v>
+        <v>-103917</v>
       </c>
       <c r="H186" s="6">
-        <v>5195094.5</v>
+        <v>5134134</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -36972,22 +37102,22 @@
         <v>29</v>
       </c>
       <c r="C187" s="6">
-        <v>1563.4</v>
+        <v>1470.1</v>
       </c>
       <c r="D187" s="6">
-        <v>-41515</v>
+        <v>-41372.1</v>
       </c>
       <c r="E187" s="6">
-        <v>641899.6</v>
+        <v>647705.59999999998</v>
       </c>
       <c r="F187" s="6">
-        <v>4034.5</v>
+        <v>3921.7</v>
       </c>
       <c r="G187" s="6">
-        <v>-106057.3</v>
+        <v>-104812.8</v>
       </c>
       <c r="H187" s="6">
-        <v>5193201</v>
+        <v>5024361</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -36998,22 +37128,22 @@
         <v>31</v>
       </c>
       <c r="C188" s="6">
-        <v>1547.8</v>
+        <v>1440.7</v>
       </c>
       <c r="D188" s="6">
-        <v>-41403.4</v>
+        <v>-41645.599999999999</v>
       </c>
       <c r="E188" s="6">
-        <v>632342.69999999995</v>
+        <v>636466.69999999995</v>
       </c>
       <c r="F188" s="6">
-        <v>3953.8</v>
+        <v>3843.3</v>
       </c>
       <c r="G188" s="6">
-        <v>-106654.8</v>
+        <v>-103187.3</v>
       </c>
       <c r="H188" s="6">
-        <v>5197253.5999999996</v>
+        <v>5019191</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37024,22 +37154,22 @@
         <v>32</v>
       </c>
       <c r="C189" s="6">
-        <v>1532.3</v>
+        <v>1426.3</v>
       </c>
       <c r="D189" s="6">
-        <v>-40827.699999999997</v>
+        <v>-40963.800000000003</v>
       </c>
       <c r="E189" s="6">
-        <v>635951.30000000005</v>
+        <v>625725</v>
       </c>
       <c r="F189" s="6">
-        <v>3874.8</v>
+        <v>3766.4</v>
       </c>
       <c r="G189" s="6">
-        <v>-107378.5</v>
+        <v>-103699.6</v>
       </c>
       <c r="H189" s="6">
-        <v>5202243.2</v>
+        <v>5024718.3</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37050,46 +37180,48 @@
         <v>34</v>
       </c>
       <c r="C190" s="6">
-        <v>1517</v>
+        <v>1412</v>
       </c>
       <c r="D190" s="6">
-        <v>-41101.800000000003</v>
+        <v>-40312.800000000003</v>
       </c>
       <c r="E190" s="6">
-        <v>641875.30000000005</v>
+        <v>629184.30000000005</v>
       </c>
       <c r="F190" s="6">
-        <v>3816.6</v>
+        <v>3709.9</v>
       </c>
       <c r="G190" s="6">
-        <v>-108341.4</v>
+        <v>-104644.3</v>
       </c>
       <c r="H190" s="6">
-        <v>5212217.5999999996</v>
+        <v>5035082.4000000004</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5">
         <v>44805</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>34</v>
+      </c>
       <c r="C191" s="6">
-        <v>1500.3</v>
+        <v>1404.9</v>
       </c>
       <c r="D191" s="6">
-        <v>-41526.1</v>
+        <v>-40576.199999999997</v>
       </c>
       <c r="E191" s="6">
-        <v>648358</v>
+        <v>633566.4</v>
       </c>
       <c r="F191" s="6">
-        <v>3759.4</v>
+        <v>3654.3</v>
       </c>
       <c r="G191" s="6">
-        <v>-109417.5</v>
+        <v>-105699</v>
       </c>
       <c r="H191" s="6">
-        <v>5223100.5</v>
+        <v>5046320.9000000004</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37098,22 +37230,46 @@
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6">
-        <v>1485.3</v>
+        <v>1397.9</v>
       </c>
       <c r="D192" s="6">
-        <v>-41987.5</v>
+        <v>-40899.599999999999</v>
       </c>
       <c r="E192" s="6">
-        <v>656869.80000000005</v>
+        <v>640196</v>
       </c>
       <c r="F192" s="6">
-        <v>3703</v>
+        <v>3599.5</v>
       </c>
       <c r="G192" s="6">
-        <v>-110523.1</v>
+        <v>-106782.39999999999</v>
       </c>
       <c r="H192" s="6">
-        <v>5238479.3</v>
+        <v>5061921</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6">
+        <v>1390.9</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-41368.9</v>
+      </c>
+      <c r="E193" s="6">
+        <v>646118.69999999995</v>
+      </c>
+      <c r="F193" s="6">
+        <v>3545.5</v>
+      </c>
+      <c r="G193" s="6">
+        <v>-107937.3</v>
+      </c>
+      <c r="H193" s="6">
+        <v>5074530.4000000004</v>
       </c>
     </row>
   </sheetData>
@@ -37129,12 +37285,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H192" sqref="H192"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:XFD192"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -41860,7 +42016,7 @@
         <v>-261630.4</v>
       </c>
       <c r="E182" s="6">
-        <v>4955620.8</v>
+        <v>4956172.2</v>
       </c>
       <c r="F182" s="6">
         <v>2375.3000000000002</v>
@@ -41883,10 +42039,10 @@
         <v>1203.3</v>
       </c>
       <c r="D183" s="6">
-        <v>-263242.90000000002</v>
+        <v>-263272.2</v>
       </c>
       <c r="E183" s="6">
-        <v>4855830.7</v>
+        <v>4795705.8</v>
       </c>
       <c r="F183" s="6">
         <v>2339.6999999999998</v>
@@ -41895,7 +42051,7 @@
         <v>-531117.80000000005</v>
       </c>
       <c r="H183" s="6">
-        <v>18694977.100000001</v>
+        <v>18895356.100000001</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -41909,19 +42065,19 @@
         <v>1187.7</v>
       </c>
       <c r="D184" s="6">
-        <v>-260005.6</v>
+        <v>-256786.2</v>
       </c>
       <c r="E184" s="6">
-        <v>4821662.9000000004</v>
+        <v>4822416.3</v>
       </c>
       <c r="F184" s="6">
         <v>2311.9</v>
       </c>
       <c r="G184" s="6">
-        <v>-512515.3</v>
+        <v>-518008.6</v>
       </c>
       <c r="H184" s="6">
-        <v>18736512.699999999</v>
+        <v>18937459.600000001</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -41935,19 +42091,19 @@
         <v>1173.4000000000001</v>
       </c>
       <c r="D185" s="6">
-        <v>-260241.5</v>
+        <v>-260282.2</v>
       </c>
       <c r="E185" s="6">
-        <v>5043573.5999999996</v>
+        <v>5044256.8</v>
       </c>
       <c r="F185" s="6">
         <v>2284.1</v>
       </c>
       <c r="G185" s="6">
-        <v>-519817.8</v>
+        <v>-525392.80000000005</v>
       </c>
       <c r="H185" s="6">
-        <v>19637194.800000001</v>
+        <v>19873906.300000001</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -41961,19 +42117,19 @@
         <v>1159.4000000000001</v>
       </c>
       <c r="D186" s="6">
-        <v>-274396.5</v>
+        <v>-274433.7</v>
       </c>
       <c r="E186" s="6">
-        <v>5129827.4000000004</v>
+        <v>5129525.5999999996</v>
       </c>
       <c r="F186" s="6">
         <v>2256.6999999999998</v>
       </c>
       <c r="G186" s="6">
-        <v>-550254</v>
+        <v>-556886.9</v>
       </c>
       <c r="H186" s="6">
-        <v>19768464.800000001</v>
+        <v>19998543.5</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -41987,19 +42143,19 @@
         <v>1145.4000000000001</v>
       </c>
       <c r="D187" s="6">
-        <v>-281601</v>
+        <v>-281584.40000000002</v>
       </c>
       <c r="E187" s="6">
-        <v>5066754.8</v>
+        <v>5084917.3</v>
       </c>
       <c r="F187" s="6">
         <v>2229.6</v>
       </c>
       <c r="G187" s="6">
-        <v>-554486.30000000005</v>
+        <v>-560939.80000000005</v>
       </c>
       <c r="H187" s="6">
-        <v>19911850.199999999</v>
+        <v>20135475.399999999</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42013,19 +42169,19 @@
         <v>1131.7</v>
       </c>
       <c r="D188" s="6">
-        <v>-280641.90000000002</v>
+        <v>-281647.90000000002</v>
       </c>
       <c r="E188" s="6">
-        <v>5090083.0999999996</v>
+        <v>5091740.4000000004</v>
       </c>
       <c r="F188" s="6">
         <v>2202.9</v>
       </c>
       <c r="G188" s="6">
-        <v>-559345.9</v>
+        <v>-565627.69999999995</v>
       </c>
       <c r="H188" s="6">
-        <v>20079450.300000001</v>
+        <v>20296793.600000001</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42039,19 +42195,19 @@
         <v>1118.0999999999999</v>
       </c>
       <c r="D189" s="6">
-        <v>-284471.40000000002</v>
+        <v>-284564</v>
       </c>
       <c r="E189" s="6">
-        <v>5182417.8</v>
+        <v>5173282.4000000004</v>
       </c>
       <c r="F189" s="6">
         <v>2174.1999999999998</v>
       </c>
       <c r="G189" s="6">
-        <v>-564618</v>
+        <v>-570729.5</v>
       </c>
       <c r="H189" s="6">
-        <v>20247547.5</v>
+        <v>20458779.300000001</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42065,43 +42221,45 @@
         <v>1100.2</v>
       </c>
       <c r="D190" s="6">
-        <v>-292238.40000000002</v>
+        <v>-292012.40000000002</v>
       </c>
       <c r="E190" s="6">
-        <v>5268658.0999999996</v>
+        <v>5259748.7</v>
       </c>
       <c r="F190" s="6">
         <v>2150.3000000000002</v>
       </c>
       <c r="G190" s="6">
-        <v>-569914.1</v>
+        <v>-575859.69999999995</v>
       </c>
       <c r="H190" s="6">
-        <v>20417340.899999999</v>
+        <v>20622627.100000001</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5">
         <v>44805</v>
       </c>
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>343</v>
+      </c>
       <c r="C191" s="6">
         <v>1082.5999999999999</v>
       </c>
       <c r="D191" s="6">
-        <v>-299775.5</v>
+        <v>-299862</v>
       </c>
       <c r="E191" s="6">
-        <v>5346718.9000000004</v>
+        <v>5337722.9000000004</v>
       </c>
       <c r="F191" s="6">
         <v>2126.6999999999998</v>
       </c>
       <c r="G191" s="6">
-        <v>-575268</v>
+        <v>-581052</v>
       </c>
       <c r="H191" s="6">
-        <v>20584277</v>
+        <v>20783779.100000001</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42113,19 +42271,43 @@
         <v>1078.3</v>
       </c>
       <c r="D192" s="6">
-        <v>-306954.90000000002</v>
+        <v>-307350.5</v>
       </c>
       <c r="E192" s="6">
-        <v>5412854</v>
+        <v>5403462.5</v>
       </c>
       <c r="F192" s="6">
         <v>2116</v>
       </c>
       <c r="G192" s="6">
-        <v>-580551.5</v>
+        <v>-586178.19999999995</v>
       </c>
       <c r="H192" s="6">
-        <v>20735870.399999999</v>
+        <v>20929745.899999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6">
+        <v>1061</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-314247.2</v>
+      </c>
+      <c r="E193" s="6">
+        <v>5453152.7000000002</v>
+      </c>
+      <c r="F193" s="6">
+        <v>2092.6999999999998</v>
+      </c>
+      <c r="G193" s="6">
+        <v>-590885.30000000005</v>
+      </c>
+      <c r="H193" s="6">
+        <v>21056673.800000001</v>
       </c>
     </row>
   </sheetData>

--- a/dpr-data.xlsx
+++ b/dpr-data.xlsx
@@ -7033,12 +7033,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A193" sqref="A193:XFD193"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A194" sqref="A194:XFD194"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11904,7 +11904,7 @@
         <v>-207048.4</v>
       </c>
       <c r="H187" s="6">
-        <v>6700673</v>
+        <v>6765102.5</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11927,10 +11927,10 @@
         <v>3746.8</v>
       </c>
       <c r="G188" s="6">
-        <v>-209969.8</v>
+        <v>-211988.7</v>
       </c>
       <c r="H188" s="6">
-        <v>6739342.4000000004</v>
+        <v>6771588.0999999996</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11947,16 +11947,16 @@
         <v>-32067.8</v>
       </c>
       <c r="E189" s="6">
-        <v>406972.6</v>
+        <v>395002.8</v>
       </c>
       <c r="F189" s="6">
         <v>3743.1</v>
       </c>
       <c r="G189" s="6">
-        <v>-211920.6</v>
+        <v>-212934.6</v>
       </c>
       <c r="H189" s="6">
-        <v>6722062.4000000004</v>
+        <v>6810356.5</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11970,19 +11970,19 @@
         <v>689</v>
       </c>
       <c r="D190" s="6">
-        <v>-31987.1</v>
+        <v>-31043.200000000001</v>
       </c>
       <c r="E190" s="6">
-        <v>411504.7</v>
+        <v>401386.7</v>
       </c>
       <c r="F190" s="6">
         <v>3750.6</v>
       </c>
       <c r="G190" s="6">
-        <v>-212138.2</v>
+        <v>-214924.6</v>
       </c>
       <c r="H190" s="6">
-        <v>6708704.5999999996</v>
+        <v>6842633</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11996,43 +11996,45 @@
         <v>690.4</v>
       </c>
       <c r="D191" s="6">
-        <v>-32346.6</v>
+        <v>-31544.9</v>
       </c>
       <c r="E191" s="6">
-        <v>417131.2</v>
+        <v>407814.8</v>
       </c>
       <c r="F191" s="6">
-        <v>3760</v>
+        <v>3763.7</v>
       </c>
       <c r="G191" s="6">
-        <v>-212478.8</v>
+        <v>-216720.6</v>
       </c>
       <c r="H191" s="6">
-        <v>6703023</v>
+        <v>6832916</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>44835</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>59</v>
+      </c>
       <c r="C192" s="6">
         <v>692.5</v>
       </c>
       <c r="D192" s="6">
-        <v>-32792.1</v>
+        <v>-32050.1</v>
       </c>
       <c r="E192" s="6">
-        <v>424503.6</v>
+        <v>415929.2</v>
       </c>
       <c r="F192" s="6">
-        <v>3771.2</v>
+        <v>3778.8</v>
       </c>
       <c r="G192" s="6">
-        <v>-213487.8</v>
+        <v>-217624.8</v>
       </c>
       <c r="H192" s="6">
-        <v>6708266.7000000002</v>
+        <v>6834459</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -12041,22 +12043,46 @@
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6">
-        <v>695.3</v>
+        <v>696</v>
       </c>
       <c r="D193" s="6">
-        <v>-33375</v>
+        <v>-32687.8</v>
       </c>
       <c r="E193" s="6">
-        <v>430758.40000000002</v>
+        <v>422910.7</v>
       </c>
       <c r="F193" s="6">
-        <v>3786.3</v>
+        <v>3795.8</v>
       </c>
       <c r="G193" s="6">
-        <v>-214851.20000000001</v>
+        <v>-218892.9</v>
       </c>
       <c r="H193" s="6">
-        <v>6709235.4000000004</v>
+        <v>6831924.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6">
+        <v>696.6</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-33236.5</v>
+      </c>
+      <c r="E194" s="6">
+        <v>430776.6</v>
+      </c>
+      <c r="F194" s="6">
+        <v>3803.4</v>
+      </c>
+      <c r="G194" s="6">
+        <v>-220037.1</v>
+      </c>
+      <c r="H194" s="6">
+        <v>6836285.2000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12072,12 +12098,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A193" sqref="A193:XFD193"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A194" sqref="A194:XFD194"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15947,7 +15973,7 @@
         <v>-1088343.7</v>
       </c>
       <c r="H148" s="6">
-        <v>31131482.600000001</v>
+        <v>30927000</v>
       </c>
       <c r="I148" s="9"/>
     </row>
@@ -15974,7 +16000,7 @@
         <v>-1100365.8999999999</v>
       </c>
       <c r="H149" s="6">
-        <v>31271586.300000001</v>
+        <v>31035000</v>
       </c>
       <c r="I149" s="9"/>
     </row>
@@ -16001,7 +16027,7 @@
         <v>-1108172.5</v>
       </c>
       <c r="H150" s="6">
-        <v>30852092.300000001</v>
+        <v>31146000</v>
       </c>
       <c r="I150" s="9"/>
     </row>
@@ -16028,7 +16054,7 @@
         <v>-1108512.6000000001</v>
       </c>
       <c r="H151" s="6">
-        <v>31066898.699999999</v>
+        <v>30854000</v>
       </c>
       <c r="I151" s="9"/>
     </row>
@@ -16055,7 +16081,7 @@
         <v>-1104083.1000000001</v>
       </c>
       <c r="H152" s="6">
-        <v>31655573.100000001</v>
+        <v>31266000</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16081,7 +16107,7 @@
         <v>-1097100.1000000001</v>
       </c>
       <c r="H153" s="6">
-        <v>31787957.5</v>
+        <v>32181000</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16107,7 +16133,7 @@
         <v>-1090571.6000000001</v>
       </c>
       <c r="H154" s="6">
-        <v>32403152.300000001</v>
+        <v>32299000</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16133,7 +16159,7 @@
         <v>-1084055.3999999999</v>
       </c>
       <c r="H155" s="6">
-        <v>32838979.699999999</v>
+        <v>32545000</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16159,7 +16185,7 @@
         <v>-1076204.8</v>
       </c>
       <c r="H156" s="6">
-        <v>32945058.199999999</v>
+        <v>33124000</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16185,7 +16211,7 @@
         <v>-1068724.1000000001</v>
       </c>
       <c r="H157" s="6">
-        <v>34103158.700000003</v>
+        <v>34049000</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16211,7 +16237,7 @@
         <v>-1061336.2</v>
       </c>
       <c r="H158" s="6">
-        <v>33918592.700000003</v>
+        <v>33798000</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16237,7 +16263,7 @@
         <v>-1054053.1000000001</v>
       </c>
       <c r="H159" s="6">
-        <v>32631992.699999999</v>
+        <v>32771000</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -16263,7 +16289,7 @@
         <v>-1050930.3999999999</v>
       </c>
       <c r="H160" s="6">
-        <v>33108237</v>
+        <v>32998000</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16289,7 +16315,7 @@
         <v>-1051633.7</v>
       </c>
       <c r="H161" s="6">
-        <v>33065529.699999999</v>
+        <v>32916000</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16315,7 +16341,7 @@
         <v>-1051633.7</v>
       </c>
       <c r="H162" s="6">
-        <v>32475877.399999999</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16338,10 +16364,10 @@
         <v>21962.1</v>
       </c>
       <c r="G163" s="6">
-        <v>-1027715.7</v>
+        <v>-1041988.6</v>
       </c>
       <c r="H163" s="6">
-        <v>32339191.300000001</v>
+        <v>32346000</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16364,10 +16390,10 @@
         <v>23609.200000000001</v>
       </c>
       <c r="G164" s="6">
-        <v>-1024413.6</v>
+        <v>-1029283.9</v>
       </c>
       <c r="H164" s="6">
-        <v>32343055</v>
+        <v>32159000</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16390,10 +16416,10 @@
         <v>25143.8</v>
       </c>
       <c r="G165" s="6">
-        <v>-1023511.4</v>
+        <v>-1022310</v>
       </c>
       <c r="H165" s="6">
-        <v>32906260</v>
+        <v>33061000</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16416,10 +16442,10 @@
         <v>26577</v>
       </c>
       <c r="G166" s="6">
-        <v>-1010094.3</v>
+        <v>-1019454.4</v>
       </c>
       <c r="H166" s="6">
-        <v>33206921.399999999</v>
+        <v>33244000</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16442,10 +16468,10 @@
         <v>28012.2</v>
       </c>
       <c r="G167" s="6">
-        <v>-998937</v>
+        <v>-1004595.4</v>
       </c>
       <c r="H167" s="6">
-        <v>32915268.5</v>
+        <v>32653000</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16468,10 +16494,10 @@
         <v>29440.799999999999</v>
       </c>
       <c r="G168" s="6">
-        <v>-1015907.7</v>
+        <v>-1012391.2</v>
       </c>
       <c r="H168" s="6">
-        <v>32800455.699999999</v>
+        <v>32944000</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16494,10 +16520,10 @@
         <v>30912.799999999999</v>
       </c>
       <c r="G169" s="6">
-        <v>-1022487.7</v>
+        <v>-1031627.6</v>
       </c>
       <c r="H169" s="6">
-        <v>34050435.100000001</v>
+        <v>34060000</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16520,10 +16546,10 @@
         <v>32149.4</v>
       </c>
       <c r="G170" s="6">
-        <v>-1067822</v>
+        <v>-1072974.1000000001</v>
       </c>
       <c r="H170" s="6">
-        <v>34935059.299999997</v>
+        <v>34810000</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16546,10 +16572,10 @@
         <v>32792.300000000003</v>
       </c>
       <c r="G171" s="6">
-        <v>-1172253.3</v>
+        <v>-1173363.1000000001</v>
       </c>
       <c r="H171" s="6">
-        <v>34855159</v>
+        <v>34820000</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16572,10 +16598,10 @@
         <v>33120.300000000003</v>
       </c>
       <c r="G172" s="6">
-        <v>-1192963.6000000001</v>
+        <v>-1197174.2</v>
       </c>
       <c r="H172" s="6">
-        <v>34381859.600000001</v>
+        <v>34560000</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16598,10 +16624,10 @@
         <v>33285.9</v>
       </c>
       <c r="G173" s="6">
-        <v>-1172057.3</v>
+        <v>-1183481.8999999999</v>
       </c>
       <c r="H173" s="6">
-        <v>34211174.5</v>
+        <v>34355000</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16624,10 +16650,10 @@
         <v>33252.6</v>
       </c>
       <c r="G174" s="6">
-        <v>-1160407.5</v>
+        <v>-1170579.6000000001</v>
       </c>
       <c r="H174" s="6">
-        <v>34404110.100000001</v>
+        <v>34315000</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16650,10 +16676,10 @@
         <v>33186.1</v>
       </c>
       <c r="G175" s="6">
-        <v>-1159950</v>
+        <v>-1162201.3</v>
       </c>
       <c r="H175" s="6">
-        <v>34383214.200000003</v>
+        <v>34204000</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16667,7 +16693,7 @@
         <v>188.1</v>
       </c>
       <c r="D176" s="6">
-        <v>-6483.4</v>
+        <v>-6483.3</v>
       </c>
       <c r="E176" s="6">
         <v>123000</v>
@@ -16676,10 +16702,10 @@
         <v>33020.1</v>
       </c>
       <c r="G176" s="6">
-        <v>-1152290</v>
+        <v>-1151491.3</v>
       </c>
       <c r="H176" s="6">
-        <v>34511353.600000001</v>
+        <v>34291000</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16693,7 +16719,7 @@
         <v>188.3</v>
       </c>
       <c r="D177" s="6">
-        <v>-6529.1</v>
+        <v>-6530</v>
       </c>
       <c r="E177" s="6">
         <v>111000</v>
@@ -16702,10 +16728,10 @@
         <v>32855</v>
       </c>
       <c r="G177" s="6">
-        <v>-1149644.8999999999</v>
+        <v>-1147493.6000000001</v>
       </c>
       <c r="H177" s="6">
-        <v>34396400.600000001</v>
+        <v>34049000</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16719,7 +16745,7 @@
         <v>188.5</v>
       </c>
       <c r="D178" s="6">
-        <v>-6580.4</v>
+        <v>-6584.1</v>
       </c>
       <c r="E178" s="6">
         <v>117000</v>
@@ -16728,10 +16754,10 @@
         <v>32592.2</v>
       </c>
       <c r="G178" s="6">
-        <v>-1138940.6000000001</v>
+        <v>-1132559.1000000001</v>
       </c>
       <c r="H178" s="6">
-        <v>34919779.899999999</v>
+        <v>34693000</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16745,7 +16771,7 @@
         <v>188.7</v>
       </c>
       <c r="D179" s="6">
-        <v>-6629.8</v>
+        <v>-6638.2</v>
       </c>
       <c r="E179" s="6">
         <v>117000</v>
@@ -16754,10 +16780,10 @@
         <v>32331.5</v>
       </c>
       <c r="G179" s="6">
-        <v>-1130832.8999999999</v>
+        <v>-1128592.7</v>
       </c>
       <c r="H179" s="6">
-        <v>34601277.100000001</v>
+        <v>34021000</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16771,7 +16797,7 @@
         <v>188.9</v>
       </c>
       <c r="D180" s="6">
-        <v>-6672.8</v>
+        <v>-6686.3</v>
       </c>
       <c r="E180" s="6">
         <v>105000</v>
@@ -16780,10 +16806,10 @@
         <v>32072.799999999999</v>
       </c>
       <c r="G180" s="6">
-        <v>-1126121.2</v>
+        <v>-1112265.6000000001</v>
       </c>
       <c r="H180" s="6">
-        <v>35102050.899999999</v>
+        <v>34949000</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16797,7 +16823,7 @@
         <v>189.1</v>
       </c>
       <c r="D181" s="6">
-        <v>-6705.4</v>
+        <v>-6727.9</v>
       </c>
       <c r="E181" s="6">
         <v>106000</v>
@@ -16806,10 +16832,10 @@
         <v>31752.1</v>
       </c>
       <c r="G181" s="6">
-        <v>-1148131.3</v>
+        <v>-1148318.2</v>
       </c>
       <c r="H181" s="6">
-        <v>35601450.399999999</v>
+        <v>35583000</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16823,7 +16849,7 @@
         <v>189.3</v>
       </c>
       <c r="D182" s="6">
-        <v>-6735.9</v>
+        <v>-6760.2</v>
       </c>
       <c r="E182" s="6">
         <v>106000</v>
@@ -16832,10 +16858,10 @@
         <v>31434.6</v>
       </c>
       <c r="G182" s="6">
-        <v>-1170288.2</v>
+        <v>-1174995.3</v>
       </c>
       <c r="H182" s="6">
-        <v>35996360.899999999</v>
+        <v>36024000</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16849,7 +16875,7 @@
         <v>189.5</v>
       </c>
       <c r="D183" s="6">
-        <v>-6767.1</v>
+        <v>-6791.5</v>
       </c>
       <c r="E183" s="6">
         <v>105000</v>
@@ -16858,10 +16884,10 @@
         <v>31057.3</v>
       </c>
       <c r="G183" s="6">
-        <v>-1189186</v>
+        <v>-1195505.3999999999</v>
       </c>
       <c r="H183" s="6">
-        <v>35100767.899999999</v>
+        <v>35148000</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16875,7 +16901,7 @@
         <v>189.6</v>
       </c>
       <c r="D184" s="6">
-        <v>-6798</v>
+        <v>-6822.7</v>
       </c>
       <c r="E184" s="6">
         <v>108000</v>
@@ -16884,10 +16910,10 @@
         <v>30529.4</v>
       </c>
       <c r="G184" s="6">
-        <v>-1165396.8999999999</v>
+        <v>-1172266.3999999999</v>
       </c>
       <c r="H184" s="6">
-        <v>34376061.200000003</v>
+        <v>34377000</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16901,7 +16927,7 @@
         <v>189.8</v>
       </c>
       <c r="D185" s="6">
-        <v>-6825.7</v>
+        <v>-6851</v>
       </c>
       <c r="E185" s="6">
         <v>116000</v>
@@ -16910,10 +16936,10 @@
         <v>30010.400000000001</v>
       </c>
       <c r="G185" s="6">
-        <v>-1147042.3</v>
+        <v>-1152284.5</v>
       </c>
       <c r="H185" s="6">
-        <v>34216390</v>
+        <v>34267000</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16927,7 +16953,7 @@
         <v>190</v>
       </c>
       <c r="D186" s="6">
-        <v>-6856.2</v>
+        <v>-6882.5</v>
       </c>
       <c r="E186" s="6">
         <v>122000</v>
@@ -16936,10 +16962,10 @@
         <v>29470.2</v>
       </c>
       <c r="G186" s="6">
-        <v>-1147423</v>
+        <v>-1154340.3999999999</v>
       </c>
       <c r="H186" s="6">
-        <v>34294297.799999997</v>
+        <v>34423000</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16953,7 +16979,7 @@
         <v>190.2</v>
       </c>
       <c r="D187" s="6">
-        <v>-6885.6</v>
+        <v>-6912.9</v>
       </c>
       <c r="E187" s="6">
         <v>120000</v>
@@ -16962,10 +16988,10 @@
         <v>28969.200000000001</v>
       </c>
       <c r="G187" s="6">
-        <v>-1156360.8</v>
+        <v>-1165973.3</v>
       </c>
       <c r="H187" s="6">
-        <v>34632953.100000001</v>
+        <v>34829000</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -16979,7 +17005,7 @@
         <v>190.4</v>
       </c>
       <c r="D188" s="6">
-        <v>-6915.8</v>
+        <v>-6944.1</v>
       </c>
       <c r="E188" s="6">
         <v>113000</v>
@@ -16988,10 +17014,10 @@
         <v>28534.7</v>
       </c>
       <c r="G188" s="6">
-        <v>-1174202.6000000001</v>
+        <v>-1186213.8</v>
       </c>
       <c r="H188" s="6">
-        <v>34856948.700000003</v>
+        <v>35057000</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17005,7 +17031,7 @@
         <v>190.6</v>
       </c>
       <c r="D189" s="6">
-        <v>-6944.9</v>
+        <v>-6974</v>
       </c>
       <c r="E189" s="6">
         <v>112000</v>
@@ -17014,10 +17040,10 @@
         <v>28192.2</v>
       </c>
       <c r="G189" s="6">
-        <v>-1188296.8999999999</v>
+        <v>-1196367</v>
       </c>
       <c r="H189" s="6">
-        <v>35106456</v>
+        <v>35262000</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17028,22 +17054,22 @@
         <v>47</v>
       </c>
       <c r="C190" s="6">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="D190" s="6">
-        <v>-6974.7</v>
+        <v>-7004.4</v>
       </c>
       <c r="E190" s="6">
-        <v>114755.2</v>
+        <v>115000</v>
       </c>
       <c r="F190" s="6">
         <v>27938.5</v>
       </c>
       <c r="G190" s="6">
-        <v>-1199794.8</v>
+        <v>-1206371.3</v>
       </c>
       <c r="H190" s="6">
-        <v>35331525.299999997</v>
+        <v>35167000</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17054,46 +17080,48 @@
         <v>47</v>
       </c>
       <c r="C191" s="6">
-        <v>191</v>
+        <v>190.8</v>
       </c>
       <c r="D191" s="6">
-        <v>-7004.5</v>
+        <v>-7034.4</v>
       </c>
       <c r="E191" s="6">
-        <v>117490.4</v>
+        <v>117695.6</v>
       </c>
       <c r="F191" s="6">
-        <v>27854.7</v>
+        <v>27687.1</v>
       </c>
       <c r="G191" s="6">
-        <v>-1210505.5</v>
+        <v>-1206129</v>
       </c>
       <c r="H191" s="6">
-        <v>35485899.899999999</v>
+        <v>35317537.100000001</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>44835</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>52</v>
+      </c>
       <c r="C192" s="6">
-        <v>191.2</v>
+        <v>190.9</v>
       </c>
       <c r="D192" s="6">
-        <v>-7033.2</v>
+        <v>-7063</v>
       </c>
       <c r="E192" s="6">
-        <v>119824.3</v>
+        <v>119985.7</v>
       </c>
       <c r="F192" s="6">
-        <v>27868.6</v>
+        <v>27271.8</v>
       </c>
       <c r="G192" s="6">
-        <v>-1218226.1000000001</v>
+        <v>-1214320.2</v>
       </c>
       <c r="H192" s="6">
-        <v>35577499</v>
+        <v>35384989.5</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17102,22 +17130,46 @@
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6">
-        <v>191.4</v>
+        <v>191</v>
       </c>
       <c r="D193" s="6">
-        <v>-7062.7</v>
+        <v>-7092.1</v>
       </c>
       <c r="E193" s="6">
-        <v>121755.4</v>
+        <v>121869.4</v>
       </c>
       <c r="F193" s="6">
-        <v>27874.2</v>
+        <v>26985.4</v>
       </c>
       <c r="G193" s="6">
-        <v>-1221492.8</v>
+        <v>-1219681</v>
       </c>
       <c r="H193" s="6">
-        <v>35666093.299999997</v>
+        <v>35433622.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6">
+        <v>191.1</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-7120</v>
+      </c>
+      <c r="E194" s="6">
+        <v>123729.7</v>
+      </c>
+      <c r="F194" s="6">
+        <v>26148.9</v>
+      </c>
+      <c r="G194" s="6">
+        <v>-1224410.8</v>
+      </c>
+      <c r="H194" s="6">
+        <v>35568952.200000003</v>
       </c>
     </row>
   </sheetData>
@@ -17133,12 +17185,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A193" sqref="A193:XFD193"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A194" sqref="A194:XFD194"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21347,7 +21399,7 @@
         <v>1229563.8</v>
       </c>
       <c r="F162" s="6">
-        <v>1103.5</v>
+        <v>1066</v>
       </c>
       <c r="G162" s="6">
         <v>-445437.3</v>
@@ -21373,7 +21425,7 @@
         <v>860855.8</v>
       </c>
       <c r="F163" s="6">
-        <v>1092.5</v>
+        <v>1057.5999999999999</v>
       </c>
       <c r="G163" s="6">
         <v>-780583.7</v>
@@ -21399,7 +21451,7 @@
         <v>900304.4</v>
       </c>
       <c r="F164" s="6">
-        <v>1201.7</v>
+        <v>1165.8</v>
       </c>
       <c r="G164" s="6">
         <v>5509.4</v>
@@ -21425,7 +21477,7 @@
         <v>1053329.3</v>
       </c>
       <c r="F165" s="6">
-        <v>1415.6</v>
+        <v>1376.1</v>
       </c>
       <c r="G165" s="6">
         <v>293700.2</v>
@@ -21451,7 +21503,7 @@
         <v>1174631</v>
       </c>
       <c r="F166" s="6">
-        <v>3447.8</v>
+        <v>3358.7</v>
       </c>
       <c r="G166" s="6">
         <v>240851.7</v>
@@ -21477,7 +21529,7 @@
         <v>1230975</v>
       </c>
       <c r="F167" s="6">
-        <v>3939.6</v>
+        <v>3845.8</v>
       </c>
       <c r="G167" s="6">
         <v>-17069.5</v>
@@ -21503,7 +21555,7 @@
         <v>1238079.5</v>
       </c>
       <c r="F168" s="6">
-        <v>4049.2</v>
+        <v>3961</v>
       </c>
       <c r="G168" s="6">
         <v>-44499.1</v>
@@ -21529,7 +21581,7 @@
         <v>1231541.8999999999</v>
       </c>
       <c r="F169" s="6">
-        <v>4027.8</v>
+        <v>3948.3</v>
       </c>
       <c r="G169" s="6">
         <v>-55336</v>
@@ -21555,7 +21607,7 @@
         <v>1197435.8999999999</v>
       </c>
       <c r="F170" s="6">
-        <v>3920</v>
+        <v>3850.7</v>
       </c>
       <c r="G170" s="6">
         <v>-66973.399999999994</v>
@@ -21581,7 +21633,7 @@
         <v>1159009</v>
       </c>
       <c r="F171" s="6">
-        <v>3822</v>
+        <v>3762.2</v>
       </c>
       <c r="G171" s="6">
         <v>-74341.600000000006</v>
@@ -21607,7 +21659,7 @@
         <v>1094441</v>
       </c>
       <c r="F172" s="6">
-        <v>3538.2</v>
+        <v>3664.5</v>
       </c>
       <c r="G172" s="6">
         <v>-128576.1</v>
@@ -21633,7 +21685,7 @@
         <v>1120206.6000000001</v>
       </c>
       <c r="F173" s="6">
-        <v>3675</v>
+        <v>3557.5</v>
       </c>
       <c r="G173" s="6">
         <v>-1219.5999999999999</v>
@@ -21659,7 +21711,7 @@
         <v>1133869.3999999999</v>
       </c>
       <c r="F174" s="6">
-        <v>3629.8</v>
+        <v>3521.1</v>
       </c>
       <c r="G174" s="6">
         <v>-59466.400000000001</v>
@@ -21685,7 +21737,7 @@
         <v>1139631.1000000001</v>
       </c>
       <c r="F175" s="6">
-        <v>3561.9</v>
+        <v>3462.6</v>
       </c>
       <c r="G175" s="6">
         <v>-61186.6</v>
@@ -21711,7 +21763,7 @@
         <v>1142797.7</v>
       </c>
       <c r="F176" s="6">
-        <v>3528</v>
+        <v>3436.8</v>
       </c>
       <c r="G176" s="6">
         <v>-61973.8</v>
@@ -21737,7 +21789,7 @@
         <v>1087932.3999999999</v>
       </c>
       <c r="F177" s="6">
-        <v>3472.9</v>
+        <v>3390.2</v>
       </c>
       <c r="G177" s="6">
         <v>-61926.5</v>
@@ -21763,7 +21815,7 @@
         <v>1119301.8</v>
       </c>
       <c r="F178" s="6">
-        <v>3389.6</v>
+        <v>3315.9</v>
       </c>
       <c r="G178" s="6">
         <v>-59785.7</v>
@@ -21789,7 +21841,7 @@
         <v>1128101</v>
       </c>
       <c r="F179" s="6">
-        <v>3332</v>
+        <v>3266.3</v>
       </c>
       <c r="G179" s="6">
         <v>-62094.5</v>
@@ -21815,7 +21867,7 @@
         <v>1124978.7</v>
       </c>
       <c r="F180" s="6">
-        <v>3274.1</v>
+        <v>3216.2</v>
       </c>
       <c r="G180" s="6">
         <v>-63917.3</v>
@@ -21841,7 +21893,7 @@
         <v>1174355.1000000001</v>
       </c>
       <c r="F181" s="6">
-        <v>3195.7</v>
+        <v>3145.7</v>
       </c>
       <c r="G181" s="6">
         <v>-63418.8</v>
@@ -21867,7 +21919,7 @@
         <v>1157319.8999999999</v>
       </c>
       <c r="F182" s="6">
-        <v>2982.6</v>
+        <v>3089.1</v>
       </c>
       <c r="G182" s="6">
         <v>-65154.3</v>
@@ -21893,7 +21945,7 @@
         <v>1114324.6000000001</v>
       </c>
       <c r="F183" s="6">
-        <v>2881.2</v>
+        <v>2990.3</v>
       </c>
       <c r="G183" s="6">
         <v>-63748.1</v>
@@ -21919,10 +21971,10 @@
         <v>1093635.7</v>
       </c>
       <c r="F184" s="6">
-        <v>2774.1</v>
+        <v>2885</v>
       </c>
       <c r="G184" s="6">
-        <v>-59828.4</v>
+        <v>-60013.9</v>
       </c>
       <c r="H184" s="6">
         <v>2888893.2</v>
@@ -21942,16 +21994,16 @@
         <v>-42785.5</v>
       </c>
       <c r="E185" s="6">
-        <v>1132989.3</v>
+        <v>1133499.6000000001</v>
       </c>
       <c r="F185" s="6">
-        <v>2696.3</v>
+        <v>2809.9</v>
       </c>
       <c r="G185" s="6">
-        <v>-60323.1</v>
+        <v>-60697.7</v>
       </c>
       <c r="H185" s="6">
-        <v>3024676.8</v>
+        <v>3024624.1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21965,19 +22017,19 @@
         <v>1857.6</v>
       </c>
       <c r="D186" s="6">
-        <v>-44413.7</v>
+        <v>-44433.7</v>
       </c>
       <c r="E186" s="6">
-        <v>922258.7</v>
+        <v>922039</v>
       </c>
       <c r="F186" s="6">
-        <v>2600.6</v>
+        <v>2715.8</v>
       </c>
       <c r="G186" s="6">
-        <v>-63152.1</v>
+        <v>-63740.2</v>
       </c>
       <c r="H186" s="6">
-        <v>2487189.9</v>
+        <v>2486932.2000000002</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21991,19 +22043,19 @@
         <v>1817.6</v>
       </c>
       <c r="D187" s="6">
-        <v>-36225.300000000003</v>
+        <v>-36216.699999999997</v>
       </c>
       <c r="E187" s="6">
-        <v>1075758.3999999999</v>
+        <v>1076314.1000000001</v>
       </c>
       <c r="F187" s="6">
-        <v>2544.6999999999998</v>
+        <v>2661.9</v>
       </c>
       <c r="G187" s="6">
-        <v>-51924.7</v>
+        <v>-52566.2</v>
       </c>
       <c r="H187" s="6">
-        <v>2826654.4</v>
+        <v>2826721.4</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22017,19 +22069,19 @@
         <v>1777.1</v>
       </c>
       <c r="D188" s="6">
-        <v>-42381.3</v>
+        <v>-42403.199999999997</v>
       </c>
       <c r="E188" s="6">
-        <v>1121264.7</v>
+        <v>1127323.3999999999</v>
       </c>
       <c r="F188" s="6">
-        <v>2488</v>
+        <v>2607.1</v>
       </c>
       <c r="G188" s="6">
-        <v>-59188.7</v>
+        <v>-59927.6</v>
       </c>
       <c r="H188" s="6">
-        <v>3105074.8</v>
+        <v>3131178.4</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22040,22 +22092,22 @@
         <v>38</v>
       </c>
       <c r="C189" s="6">
-        <v>1739.5</v>
+        <v>1731.6</v>
       </c>
       <c r="D189" s="6">
-        <v>-44306.7</v>
+        <v>-44546.1</v>
       </c>
       <c r="E189" s="6">
-        <v>1074972.6000000001</v>
+        <v>1105490.7</v>
       </c>
       <c r="F189" s="6">
-        <v>2435.3000000000002</v>
+        <v>2544.6</v>
       </c>
       <c r="G189" s="6">
-        <v>-65213.7</v>
+        <v>-66581.3</v>
       </c>
       <c r="H189" s="6">
-        <v>3090216.3</v>
+        <v>3153335.1</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22066,22 +22118,22 @@
         <v>39</v>
       </c>
       <c r="C190" s="6">
-        <v>1723.7</v>
+        <v>1715.8</v>
       </c>
       <c r="D190" s="6">
-        <v>-42575.1</v>
+        <v>-43814.400000000001</v>
       </c>
       <c r="E190" s="6">
-        <v>1075275</v>
+        <v>1100988</v>
       </c>
       <c r="F190" s="6">
-        <v>2413.1999999999998</v>
+        <v>2525.6</v>
       </c>
       <c r="G190" s="6">
-        <v>-65096.4</v>
+        <v>-67253.600000000006</v>
       </c>
       <c r="H190" s="6">
-        <v>3098990</v>
+        <v>3157869.9</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22092,46 +22144,48 @@
         <v>40</v>
       </c>
       <c r="C191" s="6">
-        <v>1710.5</v>
+        <v>1702.6</v>
       </c>
       <c r="D191" s="6">
-        <v>-42672.3</v>
+        <v>-43766.9</v>
       </c>
       <c r="E191" s="6">
-        <v>1147318.3999999999</v>
+        <v>1139522.6000000001</v>
       </c>
       <c r="F191" s="6">
-        <v>2394.6999999999998</v>
+        <v>2510.5</v>
       </c>
       <c r="G191" s="6">
-        <v>-65477</v>
+        <v>-67552.399999999994</v>
       </c>
       <c r="H191" s="6">
-        <v>3124513</v>
+        <v>3185717.7</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>44835</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>39</v>
+      </c>
       <c r="C192" s="6">
-        <v>1701.3</v>
+        <v>1693.6</v>
       </c>
       <c r="D192" s="6">
-        <v>-45622.400000000001</v>
+        <v>-45434.6</v>
       </c>
       <c r="E192" s="6">
-        <v>1168046</v>
+        <v>1160138</v>
       </c>
       <c r="F192" s="6">
-        <v>2492.4</v>
+        <v>2501.4</v>
       </c>
       <c r="G192" s="6">
-        <v>-66214.399999999994</v>
+        <v>-68352.5</v>
       </c>
       <c r="H192" s="6">
-        <v>3155501.4</v>
+        <v>3214921</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22140,22 +22194,46 @@
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6">
-        <v>1703.8</v>
+        <v>1696.2</v>
       </c>
       <c r="D193" s="6">
-        <v>-46539.5</v>
+        <v>-46395.3</v>
       </c>
       <c r="E193" s="6">
-        <v>1189656.5</v>
+        <v>1181592.6000000001</v>
       </c>
       <c r="F193" s="6">
-        <v>2506.1999999999998</v>
+        <v>2509.6</v>
       </c>
       <c r="G193" s="6">
-        <v>-67071.7</v>
+        <v>-69186</v>
       </c>
       <c r="H193" s="6">
-        <v>3188678.4</v>
+        <v>3246119</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6">
+        <v>1710.3</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-47395.1</v>
+      </c>
+      <c r="E194" s="6">
+        <v>1200897.5</v>
+      </c>
+      <c r="F194" s="6">
+        <v>2534.6</v>
+      </c>
+      <c r="G194" s="6">
+        <v>-70067</v>
+      </c>
+      <c r="H194" s="6">
+        <v>3274901.4</v>
       </c>
     </row>
   </sheetData>
@@ -22171,12 +22249,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A193" sqref="A193:XFD193"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A194" sqref="A194:XFD194"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -27081,10 +27159,10 @@
         <v>1675.6</v>
       </c>
       <c r="D189" s="6">
-        <v>-93683.1</v>
+        <v>-93750.5</v>
       </c>
       <c r="E189" s="6">
-        <v>1138496.3</v>
+        <v>1138428.8999999999</v>
       </c>
       <c r="F189" s="6">
         <v>6752.3</v>
@@ -27107,19 +27185,19 @@
         <v>1633.7</v>
       </c>
       <c r="D190" s="6">
-        <v>-95734.1</v>
+        <v>-95856.7</v>
       </c>
       <c r="E190" s="6">
-        <v>1162025.6000000001</v>
+        <v>1161835.6000000001</v>
       </c>
       <c r="F190" s="6">
         <v>6549.8</v>
       </c>
       <c r="G190" s="6">
-        <v>-356643.6</v>
+        <v>-356607.9</v>
       </c>
       <c r="H190" s="6">
-        <v>6985091.4000000004</v>
+        <v>6985127</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -27133,43 +27211,45 @@
         <v>1602.7</v>
       </c>
       <c r="D191" s="6">
-        <v>-97781</v>
+        <v>-97956.7</v>
       </c>
       <c r="E191" s="6">
-        <v>1184447.3</v>
+        <v>1184081.7</v>
       </c>
       <c r="F191" s="6">
         <v>6386</v>
       </c>
       <c r="G191" s="6">
-        <v>-363028.9</v>
+        <v>-362958.2</v>
       </c>
       <c r="H191" s="6">
-        <v>7101013.7000000002</v>
+        <v>7101120.0999999996</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>44835</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>76</v>
+      </c>
       <c r="C192" s="6">
-        <v>1586.7</v>
+        <v>1578.7</v>
       </c>
       <c r="D192" s="6">
-        <v>-99737.5</v>
+        <v>-99964.1</v>
       </c>
       <c r="E192" s="6">
-        <v>1208470.5</v>
+        <v>1207253.3</v>
       </c>
       <c r="F192" s="6">
         <v>6258.3</v>
       </c>
       <c r="G192" s="6">
-        <v>-369127.4</v>
+        <v>-369022.3</v>
       </c>
       <c r="H192" s="6">
-        <v>7220033.5</v>
+        <v>7220245</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -27178,22 +27258,46 @@
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6">
-        <v>1570.8</v>
+        <v>1556.6</v>
       </c>
       <c r="D193" s="6">
-        <v>-101831.7</v>
+        <v>-102054.8</v>
       </c>
       <c r="E193" s="6">
-        <v>1226020.3999999999</v>
+        <v>1223497.2</v>
       </c>
       <c r="F193" s="6">
         <v>6133.1</v>
       </c>
       <c r="G193" s="6">
-        <v>-375389.4</v>
+        <v>-375250.3</v>
       </c>
       <c r="H193" s="6">
-        <v>7310762</v>
+        <v>7311112.7000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6">
+        <v>1541</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-103564.5</v>
+      </c>
+      <c r="E194" s="6">
+        <v>1237048.3</v>
+      </c>
+      <c r="F194" s="6">
+        <v>6041.1</v>
+      </c>
+      <c r="G194" s="6">
+        <v>-380010.9</v>
+      </c>
+      <c r="H194" s="6">
+        <v>7390228</v>
       </c>
     </row>
   </sheetData>
@@ -27209,12 +27313,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A193" sqref="A193:XFD193"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A194" sqref="A194:XFD194"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -31764,7 +31868,7 @@
         <v>12976.7</v>
       </c>
       <c r="G175" s="6">
-        <v>-462255.3</v>
+        <v>-462485.9</v>
       </c>
       <c r="H175" s="6">
         <v>12970010.4</v>
@@ -31790,7 +31894,7 @@
         <v>12782.1</v>
       </c>
       <c r="G176" s="6">
-        <v>-463025.2</v>
+        <v>-463718.6</v>
       </c>
       <c r="H176" s="6">
         <v>13220289</v>
@@ -31816,7 +31920,7 @@
         <v>12654.3</v>
       </c>
       <c r="G177" s="6">
-        <v>-472904</v>
+        <v>-474084.9</v>
       </c>
       <c r="H177" s="6">
         <v>13654956.1</v>
@@ -31842,7 +31946,7 @@
         <v>12553</v>
       </c>
       <c r="G178" s="6">
-        <v>-489429.5</v>
+        <v>-491141.2</v>
       </c>
       <c r="H178" s="6">
         <v>13534531.4</v>
@@ -31868,7 +31972,7 @@
         <v>12490.3</v>
       </c>
       <c r="G179" s="6">
-        <v>-486325.9</v>
+        <v>-488270.2</v>
       </c>
       <c r="H179" s="6">
         <v>13901725.199999999</v>
@@ -31894,7 +31998,7 @@
         <v>12452.8</v>
       </c>
       <c r="G180" s="6">
-        <v>-501018.6</v>
+        <v>-503021.6</v>
       </c>
       <c r="H180" s="6">
         <v>14022070.4</v>
@@ -31920,7 +32024,7 @@
         <v>12440.3</v>
       </c>
       <c r="G181" s="6">
-        <v>-507124.5</v>
+        <v>-509152</v>
       </c>
       <c r="H181" s="6">
         <v>14505032.4</v>
@@ -31946,7 +32050,7 @@
         <v>12427.9</v>
       </c>
       <c r="G182" s="6">
-        <v>-526689.80000000005</v>
+        <v>-528795.5</v>
       </c>
       <c r="H182" s="6">
         <v>14633335.1</v>
@@ -31972,7 +32076,7 @@
         <v>12403</v>
       </c>
       <c r="G183" s="6">
-        <v>-533739.6</v>
+        <v>-535873.5</v>
       </c>
       <c r="H183" s="6">
         <v>14529354.1</v>
@@ -31998,7 +32102,7 @@
         <v>12217</v>
       </c>
       <c r="G184" s="6">
-        <v>-532596.69999999995</v>
+        <v>-534726.1</v>
       </c>
       <c r="H184" s="6">
         <v>14531706.800000001</v>
@@ -32024,10 +32128,10 @@
         <v>11972.7</v>
       </c>
       <c r="G185" s="6">
-        <v>-535346.4</v>
+        <v>-537486.69999999995</v>
       </c>
       <c r="H185" s="6">
-        <v>14406948.9</v>
+        <v>14435393</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32050,10 +32154,10 @@
         <v>11733.2</v>
       </c>
       <c r="G186" s="6">
-        <v>-533669.5</v>
+        <v>-536860.9</v>
       </c>
       <c r="H186" s="6">
-        <v>14577271.9</v>
+        <v>14602524.6</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32076,10 +32180,10 @@
         <v>11522</v>
       </c>
       <c r="G187" s="6">
-        <v>-542948.5</v>
+        <v>-546063.6</v>
       </c>
       <c r="H187" s="6">
-        <v>14817820.1</v>
+        <v>14839957.699999999</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32102,10 +32206,10 @@
         <v>11314.6</v>
       </c>
       <c r="G188" s="6">
-        <v>-554943.5</v>
+        <v>-557994.6</v>
       </c>
       <c r="H188" s="6">
-        <v>15054899.5</v>
+        <v>15073986.1</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32116,7 +32220,7 @@
         <v>72</v>
       </c>
       <c r="C189" s="6">
-        <v>19.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D189" s="6">
         <v>-1019.4</v>
@@ -32128,10 +32232,10 @@
         <v>11111</v>
       </c>
       <c r="G189" s="6">
-        <v>-566641.5</v>
+        <v>-569628.19999999995</v>
       </c>
       <c r="H189" s="6">
-        <v>15277135.5</v>
+        <v>15293235.4</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32142,22 +32246,22 @@
         <v>73</v>
       </c>
       <c r="C190" s="6">
-        <v>19.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D190" s="6">
         <v>-1018.2</v>
       </c>
       <c r="E190" s="6">
-        <v>35764</v>
+        <v>35757.599999999999</v>
       </c>
       <c r="F190" s="6">
         <v>10999.8</v>
       </c>
       <c r="G190" s="6">
-        <v>-577881.19999999995</v>
+        <v>-580803</v>
       </c>
       <c r="H190" s="6">
-        <v>15491242.9</v>
+        <v>15504421</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32168,46 +32272,48 @@
         <v>75</v>
       </c>
       <c r="C191" s="6">
-        <v>19.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D191" s="6">
-        <v>-1029.7</v>
+        <v>-1029.5</v>
       </c>
       <c r="E191" s="6">
-        <v>36152.400000000001</v>
+        <v>36138.6</v>
       </c>
       <c r="F191" s="6">
         <v>10889.8</v>
       </c>
       <c r="G191" s="6">
-        <v>-588910</v>
+        <v>-591767.4</v>
       </c>
       <c r="H191" s="6">
-        <v>15686401.6</v>
+        <v>15696722.199999999</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>44835</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>74</v>
+      </c>
       <c r="C192" s="6">
-        <v>19.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D192" s="6">
-        <v>-1040.9000000000001</v>
+        <v>-1040.5</v>
       </c>
       <c r="E192" s="6">
-        <v>36550.800000000003</v>
+        <v>36528.300000000003</v>
       </c>
       <c r="F192" s="6">
         <v>10835.4</v>
       </c>
       <c r="G192" s="6">
-        <v>-599012.6</v>
+        <v>-601803.1</v>
       </c>
       <c r="H192" s="6">
-        <v>15878372.699999999</v>
+        <v>15885902.800000001</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -32216,22 +32322,46 @@
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6">
-        <v>19.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D193" s="6">
-        <v>-1052.3</v>
+        <v>-1051.7</v>
       </c>
       <c r="E193" s="6">
-        <v>36978.6</v>
+        <v>36946.199999999997</v>
       </c>
       <c r="F193" s="6">
         <v>10781.2</v>
       </c>
       <c r="G193" s="6">
-        <v>-609071.9</v>
+        <v>-611796.9</v>
       </c>
       <c r="H193" s="6">
-        <v>16077892.1</v>
+        <v>16082697.199999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-1063.7</v>
+      </c>
+      <c r="E194" s="6">
+        <v>37332.6</v>
+      </c>
+      <c r="F194" s="6">
+        <v>10759.7</v>
+      </c>
+      <c r="G194" s="6">
+        <v>-622163.1</v>
+      </c>
+      <c r="H194" s="6">
+        <v>16256748.5</v>
       </c>
     </row>
   </sheetData>
@@ -32247,12 +32377,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A193" sqref="A193:XFD193"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A194" sqref="A194:XFD194"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -36871,7 +37001,7 @@
         <v>1936.6</v>
       </c>
       <c r="D178" s="6">
-        <v>-38581.800000000003</v>
+        <v>-38601</v>
       </c>
       <c r="E178" s="6">
         <v>615150</v>
@@ -36897,7 +37027,7 @@
         <v>1839.8</v>
       </c>
       <c r="D179" s="6">
-        <v>-39198.1</v>
+        <v>-39237.300000000003</v>
       </c>
       <c r="E179" s="6">
         <v>626890</v>
@@ -36923,7 +37053,7 @@
         <v>1729.4</v>
       </c>
       <c r="D180" s="6">
-        <v>-39986.199999999997</v>
+        <v>-40046.1</v>
       </c>
       <c r="E180" s="6">
         <v>655241.1</v>
@@ -36949,7 +37079,7 @@
         <v>1642.9</v>
       </c>
       <c r="D181" s="6">
-        <v>-41836.300000000003</v>
+        <v>-41920</v>
       </c>
       <c r="E181" s="6">
         <v>656931.5</v>
@@ -36975,7 +37105,7 @@
         <v>1593.6</v>
       </c>
       <c r="D182" s="6">
-        <v>-41986.2</v>
+        <v>-42091.199999999997</v>
       </c>
       <c r="E182" s="6">
         <v>650281.4</v>
@@ -37001,7 +37131,7 @@
         <v>1561.8</v>
       </c>
       <c r="D183" s="6">
-        <v>-41602.699999999997</v>
+        <v>-41727.599999999999</v>
       </c>
       <c r="E183" s="6">
         <v>595621.80000000005</v>
@@ -37027,10 +37157,10 @@
         <v>1546.2</v>
       </c>
       <c r="D184" s="6">
-        <v>-38143.9</v>
+        <v>-38277.5</v>
       </c>
       <c r="E184" s="6">
-        <v>625203.6</v>
+        <v>624769.9</v>
       </c>
       <c r="F184" s="6">
         <v>4166.8</v>
@@ -37053,16 +37183,16 @@
         <v>1530.7</v>
       </c>
       <c r="D185" s="6">
-        <v>-40078.400000000001</v>
+        <v>-40210.9</v>
       </c>
       <c r="E185" s="6">
-        <v>639667.1</v>
+        <v>639985</v>
       </c>
       <c r="F185" s="6">
         <v>4083.4</v>
       </c>
       <c r="G185" s="6">
-        <v>-101916.6</v>
+        <v>-102526.9</v>
       </c>
       <c r="H185" s="6">
         <v>5120796</v>
@@ -37079,16 +37209,16 @@
         <v>1500.1</v>
       </c>
       <c r="D186" s="6">
-        <v>-41046.6</v>
+        <v>-41251.9</v>
       </c>
       <c r="E186" s="6">
-        <v>644096.19999999995</v>
+        <v>644035.69999999995</v>
       </c>
       <c r="F186" s="6">
         <v>4001.8</v>
       </c>
       <c r="G186" s="6">
-        <v>-103917</v>
+        <v>-105165.3</v>
       </c>
       <c r="H186" s="6">
         <v>5134134</v>
@@ -37105,16 +37235,16 @@
         <v>1470.1</v>
       </c>
       <c r="D187" s="6">
-        <v>-41372.1</v>
+        <v>-41575.300000000003</v>
       </c>
       <c r="E187" s="6">
-        <v>647705.59999999998</v>
+        <v>648051.4</v>
       </c>
       <c r="F187" s="6">
         <v>3921.7</v>
       </c>
       <c r="G187" s="6">
-        <v>-104812.8</v>
+        <v>-106282.7</v>
       </c>
       <c r="H187" s="6">
         <v>5024361</v>
@@ -37131,19 +37261,19 @@
         <v>1440.7</v>
       </c>
       <c r="D188" s="6">
-        <v>-41645.599999999999</v>
+        <v>-41897.300000000003</v>
       </c>
       <c r="E188" s="6">
-        <v>636466.69999999995</v>
+        <v>638113</v>
       </c>
       <c r="F188" s="6">
         <v>3843.3</v>
       </c>
       <c r="G188" s="6">
-        <v>-103187.3</v>
+        <v>-104842.4</v>
       </c>
       <c r="H188" s="6">
-        <v>5019191</v>
+        <v>5029109</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37157,19 +37287,19 @@
         <v>1426.3</v>
       </c>
       <c r="D189" s="6">
-        <v>-40963.800000000003</v>
+        <v>-41316.699999999997</v>
       </c>
       <c r="E189" s="6">
-        <v>625725</v>
+        <v>637437.9</v>
       </c>
       <c r="F189" s="6">
         <v>3766.4</v>
       </c>
       <c r="G189" s="6">
-        <v>-103699.6</v>
+        <v>-105781</v>
       </c>
       <c r="H189" s="6">
-        <v>5024718.3</v>
+        <v>5032554.9000000004</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37183,19 +37313,19 @@
         <v>1412</v>
       </c>
       <c r="D190" s="6">
-        <v>-40312.800000000003</v>
+        <v>-41334.9</v>
       </c>
       <c r="E190" s="6">
-        <v>629184.30000000005</v>
+        <v>638134</v>
       </c>
       <c r="F190" s="6">
         <v>3709.9</v>
       </c>
       <c r="G190" s="6">
-        <v>-104644.3</v>
+        <v>-106700.3</v>
       </c>
       <c r="H190" s="6">
-        <v>5035082.4000000004</v>
+        <v>5040863</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37209,43 +37339,45 @@
         <v>1404.9</v>
       </c>
       <c r="D191" s="6">
-        <v>-40576.199999999997</v>
+        <v>-41437.9</v>
       </c>
       <c r="E191" s="6">
-        <v>633566.4</v>
+        <v>641654.30000000005</v>
       </c>
       <c r="F191" s="6">
         <v>3654.3</v>
       </c>
       <c r="G191" s="6">
-        <v>-105699</v>
+        <v>-107731.4</v>
       </c>
       <c r="H191" s="6">
-        <v>5046320.9000000004</v>
+        <v>5050069.0999999996</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>44835</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>37</v>
+      </c>
       <c r="C192" s="6">
         <v>1397.9</v>
       </c>
       <c r="D192" s="6">
-        <v>-40899.599999999999</v>
+        <v>-41729</v>
       </c>
       <c r="E192" s="6">
-        <v>640196</v>
+        <v>647454.5</v>
       </c>
       <c r="F192" s="6">
         <v>3599.5</v>
       </c>
       <c r="G192" s="6">
-        <v>-106782.39999999999</v>
+        <v>-108791.6</v>
       </c>
       <c r="H192" s="6">
-        <v>5061921</v>
+        <v>5063659.9000000004</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37254,22 +37386,46 @@
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6">
-        <v>1390.9</v>
+        <v>1395.1</v>
       </c>
       <c r="D193" s="6">
-        <v>-41368.9</v>
+        <v>-42169.4</v>
       </c>
       <c r="E193" s="6">
-        <v>646118.69999999995</v>
+        <v>652719.30000000005</v>
       </c>
       <c r="F193" s="6">
         <v>3545.5</v>
       </c>
       <c r="G193" s="6">
-        <v>-107937.3</v>
+        <v>-109957.1</v>
       </c>
       <c r="H193" s="6">
-        <v>5074530.4000000004</v>
+        <v>5074249.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6">
+        <v>1388.1</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-42576.1</v>
+      </c>
+      <c r="E194" s="6">
+        <v>661504.80000000005</v>
+      </c>
+      <c r="F194" s="6">
+        <v>3492.3</v>
+      </c>
+      <c r="G194" s="6">
+        <v>-111068.5</v>
+      </c>
+      <c r="H194" s="6">
+        <v>5092396.4000000004</v>
       </c>
     </row>
   </sheetData>
@@ -37285,12 +37441,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H192" sqref="H192"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -42016,7 +42172,7 @@
         <v>-261630.4</v>
       </c>
       <c r="E182" s="6">
-        <v>4956172.2</v>
+        <v>4956371.5</v>
       </c>
       <c r="F182" s="6">
         <v>2375.3000000000002</v>
@@ -42039,10 +42195,10 @@
         <v>1203.3</v>
       </c>
       <c r="D183" s="6">
-        <v>-263272.2</v>
+        <v>-263282.8</v>
       </c>
       <c r="E183" s="6">
-        <v>4795705.8</v>
+        <v>4796131.9000000004</v>
       </c>
       <c r="F183" s="6">
         <v>2339.6999999999998</v>
@@ -42051,7 +42207,7 @@
         <v>-531117.80000000005</v>
       </c>
       <c r="H183" s="6">
-        <v>18895356.100000001</v>
+        <v>18895467.600000001</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42065,19 +42221,19 @@
         <v>1187.7</v>
       </c>
       <c r="D184" s="6">
-        <v>-256786.2</v>
+        <v>-257318.6</v>
       </c>
       <c r="E184" s="6">
-        <v>4822416.3</v>
+        <v>4822223.0999999996</v>
       </c>
       <c r="F184" s="6">
         <v>2311.9</v>
       </c>
       <c r="G184" s="6">
-        <v>-518008.6</v>
+        <v>-518011.7</v>
       </c>
       <c r="H184" s="6">
-        <v>18937459.600000001</v>
+        <v>18937049.100000001</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42091,19 +42247,19 @@
         <v>1173.4000000000001</v>
       </c>
       <c r="D185" s="6">
-        <v>-260282.2</v>
+        <v>-261305.60000000001</v>
       </c>
       <c r="E185" s="6">
-        <v>5044256.8</v>
+        <v>5044265.3</v>
       </c>
       <c r="F185" s="6">
         <v>2284.1</v>
       </c>
       <c r="G185" s="6">
-        <v>-525392.80000000005</v>
+        <v>-525381.4</v>
       </c>
       <c r="H185" s="6">
-        <v>19873906.300000001</v>
+        <v>19974494.899999999</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42117,19 +42273,19 @@
         <v>1159.4000000000001</v>
       </c>
       <c r="D186" s="6">
-        <v>-274433.7</v>
+        <v>-276070.90000000002</v>
       </c>
       <c r="E186" s="6">
-        <v>5129525.5999999996</v>
+        <v>5129596.3</v>
       </c>
       <c r="F186" s="6">
         <v>2256.6999999999998</v>
       </c>
       <c r="G186" s="6">
-        <v>-556886.9</v>
+        <v>-559705.5</v>
       </c>
       <c r="H186" s="6">
-        <v>19998543.5</v>
+        <v>20096313.399999999</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42143,19 +42299,19 @@
         <v>1145.4000000000001</v>
       </c>
       <c r="D187" s="6">
-        <v>-281584.40000000002</v>
+        <v>-283548.5</v>
       </c>
       <c r="E187" s="6">
-        <v>5084917.3</v>
+        <v>5085170.5999999996</v>
       </c>
       <c r="F187" s="6">
         <v>2229.6</v>
       </c>
       <c r="G187" s="6">
-        <v>-560939.80000000005</v>
+        <v>-563682.1</v>
       </c>
       <c r="H187" s="6">
-        <v>20135475.399999999</v>
+        <v>20230503</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42169,19 +42325,19 @@
         <v>1131.7</v>
       </c>
       <c r="D188" s="6">
-        <v>-281647.90000000002</v>
+        <v>-283903.7</v>
       </c>
       <c r="E188" s="6">
-        <v>5091740.4000000004</v>
+        <v>5104025.9000000004</v>
       </c>
       <c r="F188" s="6">
         <v>2202.9</v>
       </c>
       <c r="G188" s="6">
-        <v>-565627.69999999995</v>
+        <v>-568297.19999999995</v>
       </c>
       <c r="H188" s="6">
-        <v>20296793.600000001</v>
+        <v>20389151.699999999</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42195,19 +42351,19 @@
         <v>1118.0999999999999</v>
       </c>
       <c r="D189" s="6">
-        <v>-284564</v>
+        <v>-287806</v>
       </c>
       <c r="E189" s="6">
-        <v>5173282.4000000004</v>
+        <v>5189918.8</v>
       </c>
       <c r="F189" s="6">
         <v>2174.1999999999998</v>
       </c>
       <c r="G189" s="6">
-        <v>-570729.5</v>
+        <v>-573326.5</v>
       </c>
       <c r="H189" s="6">
-        <v>20458779.300000001</v>
+        <v>20548540.399999999</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42221,19 +42377,19 @@
         <v>1100.2</v>
       </c>
       <c r="D190" s="6">
-        <v>-292012.40000000002</v>
+        <v>-295575.8</v>
       </c>
       <c r="E190" s="6">
-        <v>5259748.7</v>
+        <v>5277293.5</v>
       </c>
       <c r="F190" s="6">
         <v>2150.3000000000002</v>
       </c>
       <c r="G190" s="6">
-        <v>-575859.69999999995</v>
+        <v>-578386.19999999995</v>
       </c>
       <c r="H190" s="6">
-        <v>20622627.100000001</v>
+        <v>20709861.699999999</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42247,43 +42403,45 @@
         <v>1082.5999999999999</v>
       </c>
       <c r="D191" s="6">
-        <v>-299862</v>
+        <v>-303557.5</v>
       </c>
       <c r="E191" s="6">
-        <v>5337722.9000000004</v>
+        <v>5351572.3</v>
       </c>
       <c r="F191" s="6">
         <v>2126.6999999999998</v>
       </c>
       <c r="G191" s="6">
-        <v>-581052</v>
+        <v>-583509.9</v>
       </c>
       <c r="H191" s="6">
-        <v>20783779.100000001</v>
+        <v>20868555.800000001</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>44835</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="6">
+        <v>346</v>
+      </c>
       <c r="C192" s="6">
         <v>1078.3</v>
       </c>
       <c r="D192" s="6">
-        <v>-307350.5</v>
+        <v>-310908.40000000002</v>
       </c>
       <c r="E192" s="6">
-        <v>5403462.5</v>
+        <v>5413753.9000000004</v>
       </c>
       <c r="F192" s="6">
         <v>2116</v>
       </c>
       <c r="G192" s="6">
-        <v>-586178.19999999995</v>
+        <v>-588569.19999999995</v>
       </c>
       <c r="H192" s="6">
-        <v>20929745.899999999</v>
+        <v>21012131.600000001</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -42295,19 +42453,43 @@
         <v>1061</v>
       </c>
       <c r="D193" s="6">
-        <v>-314247.2</v>
+        <v>-317666.09999999998</v>
       </c>
       <c r="E193" s="6">
-        <v>5453152.7000000002</v>
+        <v>5460025.2000000002</v>
       </c>
       <c r="F193" s="6">
-        <v>2092.6999999999998</v>
+        <v>2111.8000000000002</v>
       </c>
       <c r="G193" s="6">
-        <v>-590885.30000000005</v>
+        <v>-593211.1</v>
       </c>
       <c r="H193" s="6">
-        <v>21056673.800000001</v>
+        <v>21143265.699999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6">
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-323905.40000000002</v>
+      </c>
+      <c r="E194" s="6">
+        <v>5499202.0999999996</v>
+      </c>
+      <c r="F194" s="6">
+        <v>2088.6</v>
+      </c>
+      <c r="G194" s="6">
+        <v>-597510.19999999995</v>
+      </c>
+      <c r="H194" s="6">
+        <v>21268398.699999999</v>
       </c>
     </row>
   </sheetData>

--- a/dpr-data.xlsx
+++ b/dpr-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24978" windowHeight="10518" tabRatio="720" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24978" windowHeight="10518" tabRatio="720" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Anadarko Region" sheetId="12" r:id="rId1"/>
@@ -7033,12 +7033,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A194" sqref="A194:XFD194"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <selection activeCell="A195" sqref="A195:XFD195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10864,7 +10864,7 @@
         <v>-281361.59999999998</v>
       </c>
       <c r="H147" s="6">
-        <v>7555884.9000000004</v>
+        <v>7556342.9000000004</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10890,7 +10890,7 @@
         <v>-286948.59999999998</v>
       </c>
       <c r="H148" s="6">
-        <v>7532249.5</v>
+        <v>7531518.2999999998</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10916,7 +10916,7 @@
         <v>-292207.2</v>
       </c>
       <c r="H149" s="6">
-        <v>7423936.7999999998</v>
+        <v>7423532.4000000004</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10942,7 +10942,7 @@
         <v>-298276.59999999998</v>
       </c>
       <c r="H150" s="6">
-        <v>7674252.0999999996</v>
+        <v>7674442</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10968,7 +10968,7 @@
         <v>-304402</v>
       </c>
       <c r="H151" s="6">
-        <v>7910848.4000000004</v>
+        <v>7911119.4000000004</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -10994,7 +10994,7 @@
         <v>-310399.3</v>
       </c>
       <c r="H152" s="6">
-        <v>7440891.9000000004</v>
+        <v>7440752.7999999998</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11020,7 +11020,7 @@
         <v>-315487.7</v>
       </c>
       <c r="H153" s="6">
-        <v>7546144.2999999998</v>
+        <v>7545668.5999999996</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11046,7 +11046,7 @@
         <v>-319967.3</v>
       </c>
       <c r="H154" s="6">
-        <v>7636103.7999999998</v>
+        <v>7636459.5999999996</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11072,7 +11072,7 @@
         <v>-323672.5</v>
       </c>
       <c r="H155" s="6">
-        <v>7866117.2999999998</v>
+        <v>7866390</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11098,7 +11098,7 @@
         <v>-326553.8</v>
       </c>
       <c r="H156" s="6">
-        <v>7763741</v>
+        <v>7764333.5999999996</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11124,7 +11124,7 @@
         <v>-328989.8</v>
       </c>
       <c r="H157" s="6">
-        <v>7702305.9000000004</v>
+        <v>7702260.7000000002</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11150,7 +11150,7 @@
         <v>-330750.90000000002</v>
       </c>
       <c r="H158" s="6">
-        <v>7713921.9000000004</v>
+        <v>7714307.2000000002</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11176,7 +11176,7 @@
         <v>-332211.09999999998</v>
       </c>
       <c r="H159" s="6">
-        <v>7837702.2000000002</v>
+        <v>7838424.2999999998</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11202,7 +11202,7 @@
         <v>-333397.2</v>
       </c>
       <c r="H160" s="6">
-        <v>7714421.7999999998</v>
+        <v>7714126.9000000004</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11228,7 +11228,7 @@
         <v>-334249.09999999998</v>
       </c>
       <c r="H161" s="6">
-        <v>7633114.7999999998</v>
+        <v>7633165.5999999996</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11254,7 +11254,7 @@
         <v>-568223.5</v>
       </c>
       <c r="H162" s="6">
-        <v>7185161.5</v>
+        <v>7184521.7000000002</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11277,10 +11277,10 @@
         <v>2783.4</v>
       </c>
       <c r="G163" s="6">
-        <v>-882547.1</v>
+        <v>-882462.6</v>
       </c>
       <c r="H163" s="6">
-        <v>6334880.5999999996</v>
+        <v>6335361.4000000004</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11303,10 +11303,10 @@
         <v>3618.4</v>
       </c>
       <c r="G164" s="6">
-        <v>272337.7</v>
+        <v>272356.59999999998</v>
       </c>
       <c r="H164" s="6">
-        <v>6740575.4000000004</v>
+        <v>6741276.4000000004</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11329,10 +11329,10 @@
         <v>4342.1000000000004</v>
       </c>
       <c r="G165" s="6">
-        <v>-95627</v>
+        <v>-95636.3</v>
       </c>
       <c r="H165" s="6">
-        <v>6648276.5999999996</v>
+        <v>6648443.2000000002</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11355,10 +11355,10 @@
         <v>4993.3999999999996</v>
       </c>
       <c r="G166" s="6">
-        <v>-117896.9</v>
+        <v>-117899.1</v>
       </c>
       <c r="H166" s="6">
-        <v>6630773.5999999996</v>
+        <v>6630522.9000000004</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11381,10 +11381,10 @@
         <v>5392.9</v>
       </c>
       <c r="G167" s="6">
-        <v>-146983.20000000001</v>
+        <v>-146976.6</v>
       </c>
       <c r="H167" s="6">
-        <v>6730338.7999999998</v>
+        <v>6729743.0999999996</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11407,10 +11407,10 @@
         <v>5662.5</v>
       </c>
       <c r="G168" s="6">
-        <v>-168584.9</v>
+        <v>-168568.9</v>
       </c>
       <c r="H168" s="6">
-        <v>6407972.5999999996</v>
+        <v>6407591.7999999998</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11433,10 +11433,10 @@
         <v>5775.8</v>
       </c>
       <c r="G169" s="6">
-        <v>-176561.1</v>
+        <v>-176549.5</v>
       </c>
       <c r="H169" s="6">
-        <v>6808465.9000000004</v>
+        <v>6808397.5</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11459,10 +11459,10 @@
         <v>5798.9</v>
       </c>
       <c r="G170" s="6">
-        <v>-196975.9</v>
+        <v>-196972.6</v>
       </c>
       <c r="H170" s="6">
-        <v>6686757.0999999996</v>
+        <v>6687106.7000000002</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11485,10 +11485,10 @@
         <v>5810.5</v>
       </c>
       <c r="G171" s="6">
-        <v>-203127.5</v>
+        <v>-203136.7</v>
       </c>
       <c r="H171" s="6">
-        <v>6477394.9000000004</v>
+        <v>6476611</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11511,10 +11511,10 @@
         <v>5740.8</v>
       </c>
       <c r="G172" s="6">
-        <v>-944484.2</v>
+        <v>-944363.6</v>
       </c>
       <c r="H172" s="6">
-        <v>5154787</v>
+        <v>5154901.2</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11537,10 +11537,10 @@
         <v>5625.9</v>
       </c>
       <c r="G173" s="6">
-        <v>563723.69999999995</v>
+        <v>563732.5</v>
       </c>
       <c r="H173" s="6">
-        <v>6431165.7000000002</v>
+        <v>6430591.7000000002</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11563,10 +11563,10 @@
         <v>5457.2</v>
       </c>
       <c r="G174" s="6">
-        <v>-182156.7</v>
+        <v>-182139.2</v>
       </c>
       <c r="H174" s="6">
-        <v>6473582.2000000002</v>
+        <v>6473954.7000000002</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11589,10 +11589,10 @@
         <v>5293.5</v>
       </c>
       <c r="G175" s="6">
-        <v>-188858.8</v>
+        <v>-188868.4</v>
       </c>
       <c r="H175" s="6">
-        <v>6536227.5999999996</v>
+        <v>6536486.7000000002</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11615,10 +11615,10 @@
         <v>5134.6000000000004</v>
       </c>
       <c r="G176" s="6">
-        <v>-196407</v>
+        <v>-196413.5</v>
       </c>
       <c r="H176" s="6">
-        <v>6440138.4000000004</v>
+        <v>6440008.0999999996</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11641,10 +11641,10 @@
         <v>4980.6000000000004</v>
       </c>
       <c r="G177" s="6">
-        <v>-194196.9</v>
+        <v>-194191.7</v>
       </c>
       <c r="H177" s="6">
-        <v>6459413.4000000004</v>
+        <v>6459354.2999999998</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11667,10 +11667,10 @@
         <v>4806.3</v>
       </c>
       <c r="G178" s="6">
-        <v>-195459.9</v>
+        <v>-195456.8</v>
       </c>
       <c r="H178" s="6">
-        <v>6502320.9000000004</v>
+        <v>6501781.7999999998</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11693,10 +11693,10 @@
         <v>4614</v>
       </c>
       <c r="G179" s="6">
-        <v>-197446.9</v>
+        <v>-197429.2</v>
       </c>
       <c r="H179" s="6">
-        <v>6545115.0999999996</v>
+        <v>6544677.7999999998</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11719,10 +11719,10 @@
         <v>4429.5</v>
       </c>
       <c r="G180" s="6">
-        <v>-199442</v>
+        <v>-199427.3</v>
       </c>
       <c r="H180" s="6">
-        <v>6527023.5999999996</v>
+        <v>6527104.0999999996</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11745,10 +11745,10 @@
         <v>4252.3</v>
       </c>
       <c r="G181" s="6">
-        <v>-199586.8</v>
+        <v>-199588</v>
       </c>
       <c r="H181" s="6">
-        <v>6475436.9000000004</v>
+        <v>6475008.7000000002</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11771,10 +11771,10 @@
         <v>4103.5</v>
       </c>
       <c r="G182" s="6">
-        <v>-198702.4</v>
+        <v>-198688</v>
       </c>
       <c r="H182" s="6">
-        <v>6388461.0999999996</v>
+        <v>6388051.5</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11797,10 +11797,10 @@
         <v>3980.4</v>
       </c>
       <c r="G183" s="6">
-        <v>-196719.6</v>
+        <v>-196705.7</v>
       </c>
       <c r="H183" s="6">
-        <v>6214083.0999999996</v>
+        <v>6214199</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11823,10 +11823,10 @@
         <v>3896.8</v>
       </c>
       <c r="G184" s="6">
-        <v>-192019.7</v>
+        <v>-192022</v>
       </c>
       <c r="H184" s="6">
-        <v>6208180.7000000002</v>
+        <v>6207736.2000000002</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11849,10 +11849,10 @@
         <v>3830.5</v>
       </c>
       <c r="G185" s="6">
-        <v>-192508.79999999999</v>
+        <v>-192493.7</v>
       </c>
       <c r="H185" s="6">
-        <v>6417665.7000000002</v>
+        <v>6386066.5</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11875,10 +11875,10 @@
         <v>3788.4</v>
       </c>
       <c r="G186" s="6">
-        <v>-199701.2</v>
+        <v>-198716.6</v>
       </c>
       <c r="H186" s="6">
-        <v>6630572.2000000002</v>
+        <v>6698383.2000000002</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11901,10 +11901,10 @@
         <v>3765.7</v>
       </c>
       <c r="G187" s="6">
-        <v>-207048.4</v>
+        <v>-209164.5</v>
       </c>
       <c r="H187" s="6">
-        <v>6765102.5</v>
+        <v>6871468.7999999998</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11927,10 +11927,10 @@
         <v>3746.8</v>
       </c>
       <c r="G188" s="6">
-        <v>-211988.7</v>
+        <v>-215320.3</v>
       </c>
       <c r="H188" s="6">
-        <v>6771588.0999999996</v>
+        <v>6881675.4000000004</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11953,10 +11953,10 @@
         <v>3743.1</v>
       </c>
       <c r="G189" s="6">
-        <v>-212934.6</v>
+        <v>-216394.9</v>
       </c>
       <c r="H189" s="6">
-        <v>6810356.5</v>
+        <v>6894044.0999999996</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11979,10 +11979,10 @@
         <v>3750.6</v>
       </c>
       <c r="G190" s="6">
-        <v>-214924.6</v>
+        <v>-217564.2</v>
       </c>
       <c r="H190" s="6">
-        <v>6842633</v>
+        <v>6903049</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11999,16 +11999,16 @@
         <v>-31544.9</v>
       </c>
       <c r="E191" s="6">
-        <v>407814.8</v>
+        <v>402583.7</v>
       </c>
       <c r="F191" s="6">
-        <v>3763.7</v>
+        <v>3765.6</v>
       </c>
       <c r="G191" s="6">
-        <v>-216720.6</v>
+        <v>-218632.7</v>
       </c>
       <c r="H191" s="6">
-        <v>6832916</v>
+        <v>6971283.9000000004</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -12022,43 +12022,45 @@
         <v>692.5</v>
       </c>
       <c r="D192" s="6">
-        <v>-32050.1</v>
+        <v>-31639</v>
       </c>
       <c r="E192" s="6">
-        <v>415929.2</v>
+        <v>411109.1</v>
       </c>
       <c r="F192" s="6">
-        <v>3778.8</v>
+        <v>3788.2</v>
       </c>
       <c r="G192" s="6">
-        <v>-217624.8</v>
+        <v>-222030.3</v>
       </c>
       <c r="H192" s="6">
-        <v>6834459</v>
+        <v>6968967.5</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5">
         <v>44866</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>64</v>
+      </c>
       <c r="C193" s="6">
         <v>696</v>
       </c>
       <c r="D193" s="6">
-        <v>-32687.8</v>
+        <v>-32309</v>
       </c>
       <c r="E193" s="6">
-        <v>422910.7</v>
+        <v>418469.5</v>
       </c>
       <c r="F193" s="6">
-        <v>3795.8</v>
+        <v>3818.5</v>
       </c>
       <c r="G193" s="6">
-        <v>-218892.9</v>
+        <v>-223199.4</v>
       </c>
       <c r="H193" s="6">
-        <v>6831924.5</v>
+        <v>6963421.0999999996</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -12070,19 +12072,43 @@
         <v>696.6</v>
       </c>
       <c r="D194" s="6">
-        <v>-33236.5</v>
+        <v>-32887.5</v>
       </c>
       <c r="E194" s="6">
-        <v>430776.6</v>
+        <v>426684.3</v>
       </c>
       <c r="F194" s="6">
-        <v>3803.4</v>
+        <v>3856.7</v>
       </c>
       <c r="G194" s="6">
-        <v>-220037.1</v>
+        <v>-224270.7</v>
       </c>
       <c r="H194" s="6">
-        <v>6836285.2000000002</v>
+        <v>6966693.4000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6">
+        <v>698</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-33533.1</v>
+      </c>
+      <c r="E195" s="6">
+        <v>437826</v>
+      </c>
+      <c r="F195" s="6">
+        <v>3902.9</v>
+      </c>
+      <c r="G195" s="6">
+        <v>-225632.6</v>
+      </c>
+      <c r="H195" s="6">
+        <v>6990848.9000000004</v>
       </c>
     </row>
   </sheetData>
@@ -12098,12 +12124,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A194" sqref="A194:XFD194"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <pane ySplit="2" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A195" sqref="A195:XFD195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16849,7 +16875,7 @@
         <v>189.3</v>
       </c>
       <c r="D182" s="6">
-        <v>-6760.2</v>
+        <v>-6762</v>
       </c>
       <c r="E182" s="6">
         <v>106000</v>
@@ -16875,7 +16901,7 @@
         <v>189.5</v>
       </c>
       <c r="D183" s="6">
-        <v>-6791.5</v>
+        <v>-6792</v>
       </c>
       <c r="E183" s="6">
         <v>105000</v>
@@ -16901,7 +16927,7 @@
         <v>189.6</v>
       </c>
       <c r="D184" s="6">
-        <v>-6822.7</v>
+        <v>-6820.4</v>
       </c>
       <c r="E184" s="6">
         <v>108000</v>
@@ -16927,7 +16953,7 @@
         <v>189.8</v>
       </c>
       <c r="D185" s="6">
-        <v>-6851</v>
+        <v>-6846.1</v>
       </c>
       <c r="E185" s="6">
         <v>116000</v>
@@ -16953,7 +16979,7 @@
         <v>190</v>
       </c>
       <c r="D186" s="6">
-        <v>-6882.5</v>
+        <v>-6874.7</v>
       </c>
       <c r="E186" s="6">
         <v>122000</v>
@@ -16979,7 +17005,7 @@
         <v>190.2</v>
       </c>
       <c r="D187" s="6">
-        <v>-6912.9</v>
+        <v>-6902.3</v>
       </c>
       <c r="E187" s="6">
         <v>120000</v>
@@ -17005,7 +17031,7 @@
         <v>190.4</v>
       </c>
       <c r="D188" s="6">
-        <v>-6944.1</v>
+        <v>-6930.6</v>
       </c>
       <c r="E188" s="6">
         <v>113000</v>
@@ -17031,7 +17057,7 @@
         <v>190.6</v>
       </c>
       <c r="D189" s="6">
-        <v>-6974</v>
+        <v>-6957.6</v>
       </c>
       <c r="E189" s="6">
         <v>112000</v>
@@ -17043,7 +17069,7 @@
         <v>-1196367</v>
       </c>
       <c r="H189" s="6">
-        <v>35262000</v>
+        <v>35261000</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17057,19 +17083,19 @@
         <v>190.7</v>
       </c>
       <c r="D190" s="6">
-        <v>-7004.4</v>
+        <v>-6985</v>
       </c>
       <c r="E190" s="6">
-        <v>115000</v>
+        <v>117000</v>
       </c>
       <c r="F190" s="6">
-        <v>27938.5</v>
+        <v>27741.200000000001</v>
       </c>
       <c r="G190" s="6">
-        <v>-1206371.3</v>
+        <v>-1206337.1000000001</v>
       </c>
       <c r="H190" s="6">
-        <v>35167000</v>
+        <v>35177000</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17083,19 +17109,19 @@
         <v>190.8</v>
       </c>
       <c r="D191" s="6">
-        <v>-7034.4</v>
+        <v>-7011.8</v>
       </c>
       <c r="E191" s="6">
-        <v>117695.6</v>
+        <v>119000</v>
       </c>
       <c r="F191" s="6">
-        <v>27687.1</v>
+        <v>27186.3</v>
       </c>
       <c r="G191" s="6">
-        <v>-1206129</v>
+        <v>-1206472</v>
       </c>
       <c r="H191" s="6">
-        <v>35317537.100000001</v>
+        <v>35204000</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17109,43 +17135,45 @@
         <v>190.9</v>
       </c>
       <c r="D192" s="6">
-        <v>-7063</v>
+        <v>-7037.2</v>
       </c>
       <c r="E192" s="6">
-        <v>119985.7</v>
+        <v>120934.1</v>
       </c>
       <c r="F192" s="6">
-        <v>27271.8</v>
+        <v>26778.5</v>
       </c>
       <c r="G192" s="6">
-        <v>-1214320.2</v>
+        <v>-1210416.5</v>
       </c>
       <c r="H192" s="6">
-        <v>35384989.5</v>
+        <v>35252175.200000003</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5">
         <v>44866</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>52</v>
+      </c>
       <c r="C193" s="6">
         <v>191</v>
       </c>
       <c r="D193" s="6">
-        <v>-7092.1</v>
+        <v>-7062.9</v>
       </c>
       <c r="E193" s="6">
-        <v>121869.4</v>
+        <v>122847</v>
       </c>
       <c r="F193" s="6">
-        <v>26985.4</v>
+        <v>26376.9</v>
       </c>
       <c r="G193" s="6">
-        <v>-1219681</v>
+        <v>-1212194.1000000001</v>
       </c>
       <c r="H193" s="6">
-        <v>35433622.5</v>
+        <v>35279693.899999999</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -17157,19 +17185,43 @@
         <v>191.1</v>
       </c>
       <c r="D194" s="6">
-        <v>-7120</v>
+        <v>-7087.4</v>
       </c>
       <c r="E194" s="6">
-        <v>123729.7</v>
+        <v>125695.3</v>
       </c>
       <c r="F194" s="6">
-        <v>26148.9</v>
+        <v>25981.200000000001</v>
       </c>
       <c r="G194" s="6">
-        <v>-1224410.8</v>
+        <v>-1213261.7</v>
       </c>
       <c r="H194" s="6">
-        <v>35568952.200000003</v>
+        <v>35417455.399999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6">
+        <v>191.2</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-7112.3</v>
+      </c>
+      <c r="E195" s="6">
+        <v>128523.7</v>
+      </c>
+      <c r="F195" s="6">
+        <v>25591.5</v>
+      </c>
+      <c r="G195" s="6">
+        <v>-1218121.1000000001</v>
+      </c>
+      <c r="H195" s="6">
+        <v>35530092.100000001</v>
       </c>
     </row>
   </sheetData>
@@ -17185,12 +17237,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A194" sqref="A194:XFD194"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <pane ySplit="2" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A195" sqref="A195:XFD195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21399,7 +21451,7 @@
         <v>1229563.8</v>
       </c>
       <c r="F162" s="6">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="G162" s="6">
         <v>-445437.3</v>
@@ -21425,7 +21477,7 @@
         <v>860855.8</v>
       </c>
       <c r="F163" s="6">
-        <v>1057.5999999999999</v>
+        <v>1055.3</v>
       </c>
       <c r="G163" s="6">
         <v>-780583.7</v>
@@ -21451,7 +21503,7 @@
         <v>900304.4</v>
       </c>
       <c r="F164" s="6">
-        <v>1165.8</v>
+        <v>1163.3</v>
       </c>
       <c r="G164" s="6">
         <v>5509.4</v>
@@ -21477,7 +21529,7 @@
         <v>1053329.3</v>
       </c>
       <c r="F165" s="6">
-        <v>1376.1</v>
+        <v>1373.2</v>
       </c>
       <c r="G165" s="6">
         <v>293700.2</v>
@@ -21503,7 +21555,7 @@
         <v>1174631</v>
       </c>
       <c r="F166" s="6">
-        <v>3358.7</v>
+        <v>3351.7</v>
       </c>
       <c r="G166" s="6">
         <v>240851.7</v>
@@ -21529,7 +21581,7 @@
         <v>1230975</v>
       </c>
       <c r="F167" s="6">
-        <v>3845.8</v>
+        <v>3837.8</v>
       </c>
       <c r="G167" s="6">
         <v>-17069.5</v>
@@ -21555,7 +21607,7 @@
         <v>1238079.5</v>
       </c>
       <c r="F168" s="6">
-        <v>3961</v>
+        <v>3952.8</v>
       </c>
       <c r="G168" s="6">
         <v>-44499.1</v>
@@ -21581,7 +21633,7 @@
         <v>1231541.8999999999</v>
       </c>
       <c r="F169" s="6">
-        <v>3948.3</v>
+        <v>3940.1</v>
       </c>
       <c r="G169" s="6">
         <v>-55336</v>
@@ -21607,7 +21659,7 @@
         <v>1197435.8999999999</v>
       </c>
       <c r="F170" s="6">
-        <v>3850.7</v>
+        <v>3842.7</v>
       </c>
       <c r="G170" s="6">
         <v>-66973.399999999994</v>
@@ -21633,13 +21685,13 @@
         <v>1159009</v>
       </c>
       <c r="F171" s="6">
-        <v>3762.2</v>
+        <v>3754.4</v>
       </c>
       <c r="G171" s="6">
         <v>-74341.600000000006</v>
       </c>
       <c r="H171" s="6">
-        <v>2887962.7</v>
+        <v>2887598.2</v>
       </c>
     </row>
     <row r="172" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21659,13 +21711,13 @@
         <v>1094441</v>
       </c>
       <c r="F172" s="6">
-        <v>3664.5</v>
+        <v>3657</v>
       </c>
       <c r="G172" s="6">
-        <v>-128576.1</v>
+        <v>-128559.9</v>
       </c>
       <c r="H172" s="6">
-        <v>2739400.7</v>
+        <v>2739180.1</v>
       </c>
     </row>
     <row r="173" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21685,13 +21737,13 @@
         <v>1120206.6000000001</v>
       </c>
       <c r="F173" s="6">
-        <v>3557.5</v>
+        <v>3550</v>
       </c>
       <c r="G173" s="6">
-        <v>-1219.5999999999999</v>
+        <v>-1219.5</v>
       </c>
       <c r="H173" s="6">
-        <v>2903654.9</v>
+        <v>2904338.3</v>
       </c>
     </row>
     <row r="174" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21711,13 +21763,13 @@
         <v>1133869.3999999999</v>
       </c>
       <c r="F174" s="6">
-        <v>3521.1</v>
+        <v>3513.7</v>
       </c>
       <c r="G174" s="6">
-        <v>-59466.400000000001</v>
+        <v>-59480.4</v>
       </c>
       <c r="H174" s="6">
-        <v>2987651.4</v>
+        <v>2987931.6</v>
       </c>
     </row>
     <row r="175" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21737,13 +21789,13 @@
         <v>1139631.1000000001</v>
       </c>
       <c r="F175" s="6">
-        <v>3462.6</v>
+        <v>3455.3</v>
       </c>
       <c r="G175" s="6">
-        <v>-61186.6</v>
+        <v>-61192.3</v>
       </c>
       <c r="H175" s="6">
-        <v>3026088.9</v>
+        <v>3026163.5</v>
       </c>
     </row>
     <row r="176" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21763,13 +21815,13 @@
         <v>1142797.7</v>
       </c>
       <c r="F176" s="6">
-        <v>3436.8</v>
+        <v>3429.6</v>
       </c>
       <c r="G176" s="6">
-        <v>-61973.8</v>
+        <v>-61975.3</v>
       </c>
       <c r="H176" s="6">
-        <v>3023778.4</v>
+        <v>3023636.4</v>
       </c>
     </row>
     <row r="177" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21786,16 +21838,16 @@
         <v>-43824.9</v>
       </c>
       <c r="E177" s="6">
-        <v>1087932.3999999999</v>
+        <v>1088449.3</v>
       </c>
       <c r="F177" s="6">
-        <v>3390.2</v>
+        <v>3383.1</v>
       </c>
       <c r="G177" s="6">
-        <v>-61926.5</v>
+        <v>-61923.6</v>
       </c>
       <c r="H177" s="6">
-        <v>2919246.4</v>
+        <v>2918798.2</v>
       </c>
     </row>
     <row r="178" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21809,19 +21861,19 @@
         <v>2305.9</v>
       </c>
       <c r="D178" s="6">
-        <v>-41971.199999999997</v>
+        <v>-41991.199999999997</v>
       </c>
       <c r="E178" s="6">
-        <v>1119301.8</v>
+        <v>1119288.6000000001</v>
       </c>
       <c r="F178" s="6">
-        <v>3315.9</v>
+        <v>3308.9</v>
       </c>
       <c r="G178" s="6">
-        <v>-59785.7</v>
+        <v>-59776.5</v>
       </c>
       <c r="H178" s="6">
-        <v>3001961.1</v>
+        <v>3002492.7</v>
       </c>
     </row>
     <row r="179" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21835,19 +21887,19 @@
         <v>2266.6999999999998</v>
       </c>
       <c r="D179" s="6">
-        <v>-43267.8</v>
+        <v>-43267.3</v>
       </c>
       <c r="E179" s="6">
-        <v>1128101</v>
+        <v>1128154.2</v>
       </c>
       <c r="F179" s="6">
-        <v>3266.3</v>
+        <v>3259.5</v>
       </c>
       <c r="G179" s="6">
-        <v>-62094.5</v>
+        <v>-62105.5</v>
       </c>
       <c r="H179" s="6">
-        <v>3059489.3</v>
+        <v>3058854.4</v>
       </c>
     </row>
     <row r="180" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21861,19 +21913,19 @@
         <v>2227.3000000000002</v>
       </c>
       <c r="D180" s="6">
-        <v>-43695.1</v>
+        <v>-43697.2</v>
       </c>
       <c r="E180" s="6">
-        <v>1124978.7</v>
+        <v>1125172.6000000001</v>
       </c>
       <c r="F180" s="6">
-        <v>3216.2</v>
+        <v>3209.5</v>
       </c>
       <c r="G180" s="6">
-        <v>-63917.3</v>
+        <v>-63904</v>
       </c>
       <c r="H180" s="6">
-        <v>3035931.8</v>
+        <v>3035930.1</v>
       </c>
     </row>
     <row r="181" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21887,19 +21939,19 @@
         <v>2173.9</v>
       </c>
       <c r="D181" s="6">
-        <v>-43661.3</v>
+        <v>-43668.9</v>
       </c>
       <c r="E181" s="6">
-        <v>1174355.1000000001</v>
+        <v>1173909.6000000001</v>
       </c>
       <c r="F181" s="6">
-        <v>3145.7</v>
+        <v>3139.1</v>
       </c>
       <c r="G181" s="6">
-        <v>-63418.8</v>
+        <v>-63418.7</v>
       </c>
       <c r="H181" s="6">
-        <v>3119324.2</v>
+        <v>3118772.7</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21913,19 +21965,19 @@
         <v>2130.4</v>
       </c>
       <c r="D182" s="6">
-        <v>-45668.800000000003</v>
+        <v>-45651.5</v>
       </c>
       <c r="E182" s="6">
-        <v>1157319.8999999999</v>
+        <v>1157254.3999999999</v>
       </c>
       <c r="F182" s="6">
-        <v>3089.1</v>
+        <v>3082.7</v>
       </c>
       <c r="G182" s="6">
-        <v>-65154.3</v>
+        <v>-65142.7</v>
       </c>
       <c r="H182" s="6">
-        <v>3052307.3</v>
+        <v>3051891</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21939,19 +21991,19 @@
         <v>2058</v>
       </c>
       <c r="D183" s="6">
-        <v>-45096.4</v>
+        <v>-45093.8</v>
       </c>
       <c r="E183" s="6">
-        <v>1114324.6000000001</v>
+        <v>1114478.3</v>
       </c>
       <c r="F183" s="6">
-        <v>2990.3</v>
+        <v>2984.1</v>
       </c>
       <c r="G183" s="6">
-        <v>-63748.1</v>
+        <v>-63739.4</v>
       </c>
       <c r="H183" s="6">
-        <v>2864917.3</v>
+        <v>2864836.3</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21965,19 +22017,19 @@
         <v>1981.5</v>
       </c>
       <c r="D184" s="6">
-        <v>-43507.9</v>
+        <v>-43513.9</v>
       </c>
       <c r="E184" s="6">
-        <v>1093635.7</v>
+        <v>1094460.7</v>
       </c>
       <c r="F184" s="6">
-        <v>2885</v>
+        <v>2879.1</v>
       </c>
       <c r="G184" s="6">
-        <v>-60013.9</v>
+        <v>-60012.2</v>
       </c>
       <c r="H184" s="6">
-        <v>2888893.2</v>
+        <v>2888513.3</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -21991,19 +22043,19 @@
         <v>1925.9</v>
       </c>
       <c r="D185" s="6">
-        <v>-42785.5</v>
+        <v>-42817.7</v>
       </c>
       <c r="E185" s="6">
-        <v>1133499.6000000001</v>
+        <v>1132704.5</v>
       </c>
       <c r="F185" s="6">
-        <v>2809.9</v>
+        <v>2804.1</v>
       </c>
       <c r="G185" s="6">
-        <v>-60697.7</v>
+        <v>-60689.7</v>
       </c>
       <c r="H185" s="6">
-        <v>3024624.1</v>
+        <v>3025029.3</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22017,19 +22069,19 @@
         <v>1857.6</v>
       </c>
       <c r="D186" s="6">
-        <v>-44433.7</v>
+        <v>-44402.6</v>
       </c>
       <c r="E186" s="6">
-        <v>922039</v>
+        <v>922332.3</v>
       </c>
       <c r="F186" s="6">
-        <v>2715.8</v>
+        <v>2710.2</v>
       </c>
       <c r="G186" s="6">
-        <v>-63740.2</v>
+        <v>-63748.7</v>
       </c>
       <c r="H186" s="6">
-        <v>2486932.2000000002</v>
+        <v>2487061.2999999998</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22043,19 +22095,19 @@
         <v>1817.6</v>
       </c>
       <c r="D187" s="6">
-        <v>-36216.699999999997</v>
+        <v>-36228.199999999997</v>
       </c>
       <c r="E187" s="6">
-        <v>1076314.1000000001</v>
+        <v>1075656.7</v>
       </c>
       <c r="F187" s="6">
-        <v>2661.9</v>
+        <v>2658.9</v>
       </c>
       <c r="G187" s="6">
-        <v>-52566.2</v>
+        <v>-52568.9</v>
       </c>
       <c r="H187" s="6">
-        <v>2826721.4</v>
+        <v>2826611.1</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22069,19 +22121,19 @@
         <v>1777.1</v>
       </c>
       <c r="D188" s="6">
-        <v>-42403.199999999997</v>
+        <v>-42377.3</v>
       </c>
       <c r="E188" s="6">
-        <v>1127323.3999999999</v>
+        <v>1127069</v>
       </c>
       <c r="F188" s="6">
-        <v>2607.1</v>
+        <v>2606.4</v>
       </c>
       <c r="G188" s="6">
-        <v>-59927.6</v>
+        <v>-59925.2</v>
       </c>
       <c r="H188" s="6">
-        <v>3131178.4</v>
+        <v>3131055.9</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22095,19 +22147,19 @@
         <v>1731.6</v>
       </c>
       <c r="D189" s="6">
-        <v>-44546.1</v>
+        <v>-44536</v>
       </c>
       <c r="E189" s="6">
-        <v>1105490.7</v>
+        <v>1100009</v>
       </c>
       <c r="F189" s="6">
-        <v>2544.6</v>
+        <v>2546.1</v>
       </c>
       <c r="G189" s="6">
-        <v>-66581.3</v>
+        <v>-66611.899999999994</v>
       </c>
       <c r="H189" s="6">
-        <v>3153335.1</v>
+        <v>3151143.5</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22121,19 +22173,19 @@
         <v>1715.8</v>
       </c>
       <c r="D190" s="6">
-        <v>-43814.400000000001</v>
+        <v>-43814.5</v>
       </c>
       <c r="E190" s="6">
-        <v>1100988</v>
+        <v>1096796.7</v>
       </c>
       <c r="F190" s="6">
-        <v>2525.6</v>
+        <v>2529.4</v>
       </c>
       <c r="G190" s="6">
-        <v>-67253.600000000006</v>
+        <v>-67273.899999999994</v>
       </c>
       <c r="H190" s="6">
-        <v>3157869.9</v>
+        <v>3155176.8</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22147,19 +22199,19 @@
         <v>1702.6</v>
       </c>
       <c r="D191" s="6">
-        <v>-43766.9</v>
+        <v>-44036</v>
       </c>
       <c r="E191" s="6">
-        <v>1139522.6000000001</v>
+        <v>1141312.3</v>
       </c>
       <c r="F191" s="6">
-        <v>2510.5</v>
+        <v>2516.5</v>
       </c>
       <c r="G191" s="6">
-        <v>-67552.399999999994</v>
+        <v>-67595.7</v>
       </c>
       <c r="H191" s="6">
-        <v>3185717.7</v>
+        <v>3236299.7</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22173,43 +22225,45 @@
         <v>1693.6</v>
       </c>
       <c r="D192" s="6">
-        <v>-45434.6</v>
+        <v>-46189.9</v>
       </c>
       <c r="E192" s="6">
-        <v>1160138</v>
+        <v>1161172.3999999999</v>
       </c>
       <c r="F192" s="6">
-        <v>2501.4</v>
+        <v>2509.6</v>
       </c>
       <c r="G192" s="6">
-        <v>-68352.5</v>
+        <v>-69576.399999999994</v>
       </c>
       <c r="H192" s="6">
-        <v>3214921</v>
+        <v>3264596.2</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5">
         <v>44866</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>41</v>
+      </c>
       <c r="C193" s="6">
         <v>1696.2</v>
       </c>
       <c r="D193" s="6">
-        <v>-46395.3</v>
+        <v>-47369.599999999999</v>
       </c>
       <c r="E193" s="6">
-        <v>1181592.6000000001</v>
+        <v>1181652.8</v>
       </c>
       <c r="F193" s="6">
-        <v>2509.6</v>
+        <v>2519.9</v>
       </c>
       <c r="G193" s="6">
-        <v>-69186</v>
+        <v>-70430.399999999994</v>
       </c>
       <c r="H193" s="6">
-        <v>3246119</v>
+        <v>3294963.8</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -22221,19 +22275,43 @@
         <v>1710.3</v>
       </c>
       <c r="D194" s="6">
-        <v>-47395.1</v>
+        <v>-48590.7</v>
       </c>
       <c r="E194" s="6">
-        <v>1200897.5</v>
+        <v>1199762</v>
       </c>
       <c r="F194" s="6">
-        <v>2534.6</v>
+        <v>2547.3000000000002</v>
       </c>
       <c r="G194" s="6">
-        <v>-70067</v>
+        <v>-71334.3</v>
       </c>
       <c r="H194" s="6">
-        <v>3274901.4</v>
+        <v>3322972.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6">
+        <v>1719.5</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-49730.1</v>
+      </c>
+      <c r="E195" s="6">
+        <v>1220531.8999999999</v>
+      </c>
+      <c r="F195" s="6">
+        <v>2567.6</v>
+      </c>
+      <c r="G195" s="6">
+        <v>-72192.5</v>
+      </c>
+      <c r="H195" s="6">
+        <v>3356050.6</v>
       </c>
     </row>
   </sheetData>
@@ -22249,12 +22327,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A194" sqref="A194:XFD194"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <pane ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A195" sqref="A195:XFD195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -27156,13 +27234,13 @@
         <v>75</v>
       </c>
       <c r="C189" s="6">
-        <v>1675.6</v>
+        <v>1672.2</v>
       </c>
       <c r="D189" s="6">
         <v>-93750.5</v>
       </c>
       <c r="E189" s="6">
-        <v>1138428.8999999999</v>
+        <v>1138185.8</v>
       </c>
       <c r="F189" s="6">
         <v>6752.3</v>
@@ -27182,13 +27260,13 @@
         <v>78</v>
       </c>
       <c r="C190" s="6">
-        <v>1633.7</v>
+        <v>1622</v>
       </c>
       <c r="D190" s="6">
-        <v>-95856.7</v>
+        <v>-95836.2</v>
       </c>
       <c r="E190" s="6">
-        <v>1161835.6000000001</v>
+        <v>1160755.5</v>
       </c>
       <c r="F190" s="6">
         <v>6549.8</v>
@@ -27208,13 +27286,13 @@
         <v>76</v>
       </c>
       <c r="C191" s="6">
-        <v>1602.7</v>
+        <v>1586.3</v>
       </c>
       <c r="D191" s="6">
-        <v>-97956.7</v>
+        <v>-97865.600000000006</v>
       </c>
       <c r="E191" s="6">
-        <v>1184081.7</v>
+        <v>1181863.3999999999</v>
       </c>
       <c r="F191" s="6">
         <v>6386</v>
@@ -27234,46 +27312,48 @@
         <v>76</v>
       </c>
       <c r="C192" s="6">
-        <v>1578.7</v>
+        <v>1559.3</v>
       </c>
       <c r="D192" s="6">
-        <v>-99964.1</v>
+        <v>-99776.8</v>
       </c>
       <c r="E192" s="6">
-        <v>1207253.3</v>
+        <v>1203715.6000000001</v>
       </c>
       <c r="F192" s="6">
         <v>6258.3</v>
       </c>
       <c r="G192" s="6">
-        <v>-369022.3</v>
+        <v>-369059.2</v>
       </c>
       <c r="H192" s="6">
-        <v>7220245</v>
+        <v>7220208.0999999996</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5">
         <v>44866</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>76</v>
+      </c>
       <c r="C193" s="6">
-        <v>1556.6</v>
+        <v>1537.5</v>
       </c>
       <c r="D193" s="6">
-        <v>-102054.8</v>
+        <v>-101755.8</v>
       </c>
       <c r="E193" s="6">
-        <v>1223497.2</v>
+        <v>1218811</v>
       </c>
       <c r="F193" s="6">
         <v>6133.1</v>
       </c>
       <c r="G193" s="6">
-        <v>-375250.3</v>
+        <v>-375323.5</v>
       </c>
       <c r="H193" s="6">
-        <v>7311112.7000000002</v>
+        <v>7311002.5999999996</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -27282,22 +27362,46 @@
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6">
-        <v>1541</v>
+        <v>1522.1</v>
       </c>
       <c r="D194" s="6">
-        <v>-103564.5</v>
+        <v>-103167.9</v>
       </c>
       <c r="E194" s="6">
-        <v>1237048.3</v>
+        <v>1231325.8</v>
       </c>
       <c r="F194" s="6">
         <v>6041.1</v>
       </c>
       <c r="G194" s="6">
-        <v>-380010.9</v>
+        <v>-380119.2</v>
       </c>
       <c r="H194" s="6">
-        <v>7390228</v>
+        <v>7390009.7000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6">
+        <v>1506.9</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-104364.8</v>
+      </c>
+      <c r="E195" s="6">
+        <v>1241486.8999999999</v>
+      </c>
+      <c r="F195" s="6">
+        <v>5968.6</v>
+      </c>
+      <c r="G195" s="6">
+        <v>-384303.8</v>
+      </c>
+      <c r="H195" s="6">
+        <v>7459322.5</v>
       </c>
     </row>
   </sheetData>
@@ -27313,12 +27417,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A194" sqref="A194:XFD194"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A195" sqref="A195:XFD195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -31518,7 +31622,7 @@
         <v>37</v>
       </c>
       <c r="C162" s="6">
-        <v>17.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="D162" s="6">
         <v>-1171.0999999999999</v>
@@ -31544,7 +31648,7 @@
         <v>32</v>
       </c>
       <c r="C163" s="6">
-        <v>18.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="D163" s="6">
         <v>-1168.5999999999999</v>
@@ -31570,7 +31674,7 @@
         <v>32</v>
       </c>
       <c r="C164" s="6">
-        <v>18.3</v>
+        <v>17.3</v>
       </c>
       <c r="D164" s="6">
         <v>-1163.8</v>
@@ -31596,7 +31700,7 @@
         <v>32</v>
       </c>
       <c r="C165" s="6">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="D165" s="6">
         <v>-1181.2</v>
@@ -31622,7 +31726,7 @@
         <v>33</v>
       </c>
       <c r="C166" s="6">
-        <v>18.899999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D166" s="6">
         <v>-1157.8</v>
@@ -31648,7 +31752,7 @@
         <v>36</v>
       </c>
       <c r="C167" s="6">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="D167" s="6">
         <v>-1148.2</v>
@@ -31674,7 +31778,7 @@
         <v>37</v>
       </c>
       <c r="C168" s="6">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="D168" s="6">
         <v>-1126.9000000000001</v>
@@ -31700,7 +31804,7 @@
         <v>39</v>
       </c>
       <c r="C169" s="6">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="D169" s="6">
         <v>-1092.9000000000001</v>
@@ -31726,7 +31830,7 @@
         <v>42</v>
       </c>
       <c r="C170" s="6">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="D170" s="6">
         <v>-1047.2</v>
@@ -31752,7 +31856,7 @@
         <v>45</v>
       </c>
       <c r="C171" s="6">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="D171" s="6">
         <v>-981.8</v>
@@ -31778,7 +31882,7 @@
         <v>47</v>
       </c>
       <c r="C172" s="6">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="D172" s="6">
         <v>-5890.7</v>
@@ -31804,7 +31908,7 @@
         <v>47</v>
       </c>
       <c r="C173" s="6">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="D173" s="6">
         <v>4242.2</v>
@@ -31830,7 +31934,7 @@
         <v>47</v>
       </c>
       <c r="C174" s="6">
-        <v>19.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D174" s="6">
         <v>-877.7</v>
@@ -31856,7 +31960,7 @@
         <v>50</v>
       </c>
       <c r="C175" s="6">
-        <v>19.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D175" s="6">
         <v>-873.8</v>
@@ -31882,7 +31986,7 @@
         <v>52</v>
       </c>
       <c r="C176" s="6">
-        <v>19.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D176" s="6">
         <v>-851.7</v>
@@ -31908,7 +32012,7 @@
         <v>51</v>
       </c>
       <c r="C177" s="6">
-        <v>19.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D177" s="6">
         <v>-857.7</v>
@@ -31934,7 +32038,7 @@
         <v>47</v>
       </c>
       <c r="C178" s="6">
-        <v>19.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D178" s="6">
         <v>-861.5</v>
@@ -31960,7 +32064,7 @@
         <v>50</v>
       </c>
       <c r="C179" s="6">
-        <v>19.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D179" s="6">
         <v>-859.4</v>
@@ -31986,7 +32090,7 @@
         <v>48</v>
       </c>
       <c r="C180" s="6">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D180" s="6">
         <v>-910.6</v>
@@ -32012,7 +32116,7 @@
         <v>49</v>
       </c>
       <c r="C181" s="6">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D181" s="6">
         <v>-943.2</v>
@@ -32038,7 +32142,7 @@
         <v>51</v>
       </c>
       <c r="C182" s="6">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D182" s="6">
         <v>-980.5</v>
@@ -32064,7 +32168,7 @@
         <v>56</v>
       </c>
       <c r="C183" s="6">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D183" s="6">
         <v>-990.8</v>
@@ -32090,7 +32194,7 @@
         <v>60</v>
       </c>
       <c r="C184" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D184" s="6">
         <v>-978.3</v>
@@ -32116,7 +32220,7 @@
         <v>68</v>
       </c>
       <c r="C185" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D185" s="6">
         <v>-1002.6</v>
@@ -32142,7 +32246,7 @@
         <v>70</v>
       </c>
       <c r="C186" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D186" s="6">
         <v>-1013.2</v>
@@ -32168,7 +32272,7 @@
         <v>71</v>
       </c>
       <c r="C187" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D187" s="6">
         <v>-1024.5</v>
@@ -32194,7 +32298,7 @@
         <v>72</v>
       </c>
       <c r="C188" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D188" s="6">
         <v>-1024</v>
@@ -32220,7 +32324,7 @@
         <v>72</v>
       </c>
       <c r="C189" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D189" s="6">
         <v>-1019.4</v>
@@ -32246,13 +32350,13 @@
         <v>73</v>
       </c>
       <c r="C190" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D190" s="6">
         <v>-1018.2</v>
       </c>
       <c r="E190" s="6">
-        <v>35757.599999999999</v>
+        <v>35681.4</v>
       </c>
       <c r="F190" s="6">
         <v>10999.8</v>
@@ -32272,13 +32376,13 @@
         <v>75</v>
       </c>
       <c r="C191" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D191" s="6">
-        <v>-1029.5</v>
+        <v>-1027.3</v>
       </c>
       <c r="E191" s="6">
-        <v>36138.6</v>
+        <v>35988.300000000003</v>
       </c>
       <c r="F191" s="6">
         <v>10889.8</v>
@@ -32298,13 +32402,13 @@
         <v>74</v>
       </c>
       <c r="C192" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D192" s="6">
-        <v>-1040.5</v>
+        <v>-1036.0999999999999</v>
       </c>
       <c r="E192" s="6">
-        <v>36528.300000000003</v>
+        <v>36305.1</v>
       </c>
       <c r="F192" s="6">
         <v>10835.4</v>
@@ -32320,15 +32424,17 @@
       <c r="A193" s="5">
         <v>44866</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>73</v>
+      </c>
       <c r="C193" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D193" s="6">
-        <v>-1051.7</v>
+        <v>-1045.3</v>
       </c>
       <c r="E193" s="6">
-        <v>36946.199999999997</v>
+        <v>36650</v>
       </c>
       <c r="F193" s="6">
         <v>10781.2</v>
@@ -32346,13 +32452,13 @@
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6">
-        <v>19.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D194" s="6">
-        <v>-1063.7</v>
+        <v>-1055.2</v>
       </c>
       <c r="E194" s="6">
-        <v>37332.6</v>
+        <v>36966.5</v>
       </c>
       <c r="F194" s="6">
         <v>10759.7</v>
@@ -32362,6 +32468,30 @@
       </c>
       <c r="H194" s="6">
         <v>16256748.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-1064.3</v>
+      </c>
+      <c r="E195" s="6">
+        <v>37255.5</v>
+      </c>
+      <c r="F195" s="6">
+        <v>10738.1</v>
+      </c>
+      <c r="G195" s="6">
+        <v>-631726.30000000005</v>
+      </c>
+      <c r="H195" s="6">
+        <v>16408906</v>
       </c>
     </row>
   </sheetData>
@@ -32377,12 +32507,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A194" sqref="A194:XFD194"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <pane ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A195" sqref="A195:XFD195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -37299,7 +37429,7 @@
         <v>-105781</v>
       </c>
       <c r="H189" s="6">
-        <v>5032554.9000000004</v>
+        <v>5032554</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37325,7 +37455,7 @@
         <v>-106700.3</v>
       </c>
       <c r="H190" s="6">
-        <v>5040863</v>
+        <v>5040862</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37351,7 +37481,7 @@
         <v>-107731.4</v>
       </c>
       <c r="H191" s="6">
-        <v>5050069.0999999996</v>
+        <v>5083834</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37374,17 +37504,19 @@
         <v>3599.5</v>
       </c>
       <c r="G192" s="6">
-        <v>-108791.6</v>
+        <v>-109519</v>
       </c>
       <c r="H192" s="6">
-        <v>5063659.9000000004</v>
+        <v>5096697.4000000004</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5">
         <v>44866</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>40</v>
+      </c>
       <c r="C193" s="6">
         <v>1395.1</v>
       </c>
@@ -37398,10 +37530,10 @@
         <v>3545.5</v>
       </c>
       <c r="G193" s="6">
-        <v>-109957.1</v>
+        <v>-110674.5</v>
       </c>
       <c r="H193" s="6">
-        <v>5074249.5</v>
+        <v>5106569.7</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -37422,10 +37554,34 @@
         <v>3492.3</v>
       </c>
       <c r="G194" s="6">
-        <v>-111068.5</v>
+        <v>-111776</v>
       </c>
       <c r="H194" s="6">
-        <v>5092396.4000000004</v>
+        <v>5124009.0999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6">
+        <v>1381.2</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-43213.8</v>
+      </c>
+      <c r="E195" s="6">
+        <v>673539.2</v>
+      </c>
+      <c r="F195" s="6">
+        <v>3439.9</v>
+      </c>
+      <c r="G195" s="6">
+        <v>-113055</v>
+      </c>
+      <c r="H195" s="6">
+        <v>5148551.0999999996</v>
       </c>
     </row>
   </sheetData>
@@ -37441,12 +37597,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H192" sqref="H192"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <pane ySplit="2" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A195" sqref="A195:XFD195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -42172,7 +42328,7 @@
         <v>-261630.4</v>
       </c>
       <c r="E182" s="6">
-        <v>4956371.5</v>
+        <v>4956021.5999999996</v>
       </c>
       <c r="F182" s="6">
         <v>2375.3000000000002</v>
@@ -42195,10 +42351,10 @@
         <v>1203.3</v>
       </c>
       <c r="D183" s="6">
-        <v>-263282.8</v>
+        <v>-263264.2</v>
       </c>
       <c r="E183" s="6">
-        <v>4796131.9000000004</v>
+        <v>4796421</v>
       </c>
       <c r="F183" s="6">
         <v>2339.6999999999998</v>
@@ -42221,10 +42377,10 @@
         <v>1187.7</v>
       </c>
       <c r="D184" s="6">
-        <v>-257318.6</v>
+        <v>-257334.1</v>
       </c>
       <c r="E184" s="6">
-        <v>4822223.0999999996</v>
+        <v>4822041.8</v>
       </c>
       <c r="F184" s="6">
         <v>2311.9</v>
@@ -42247,10 +42403,10 @@
         <v>1173.4000000000001</v>
       </c>
       <c r="D185" s="6">
-        <v>-261305.60000000001</v>
+        <v>-261295.8</v>
       </c>
       <c r="E185" s="6">
-        <v>5044265.3</v>
+        <v>5044294.9000000004</v>
       </c>
       <c r="F185" s="6">
         <v>2284.1</v>
@@ -42273,10 +42429,10 @@
         <v>1159.4000000000001</v>
       </c>
       <c r="D186" s="6">
-        <v>-276070.90000000002</v>
+        <v>-276072.59999999998</v>
       </c>
       <c r="E186" s="6">
-        <v>5129596.3</v>
+        <v>5130145.5</v>
       </c>
       <c r="F186" s="6">
         <v>2256.6999999999998</v>
@@ -42299,10 +42455,10 @@
         <v>1145.4000000000001</v>
       </c>
       <c r="D187" s="6">
-        <v>-283548.5</v>
+        <v>-283578.8</v>
       </c>
       <c r="E187" s="6">
-        <v>5085170.5999999996</v>
+        <v>5084517.3</v>
       </c>
       <c r="F187" s="6">
         <v>2229.6</v>
@@ -42325,10 +42481,10 @@
         <v>1131.7</v>
       </c>
       <c r="D188" s="6">
-        <v>-283903.7</v>
+        <v>-283867.2</v>
       </c>
       <c r="E188" s="6">
-        <v>5104025.9000000004</v>
+        <v>5104205.3</v>
       </c>
       <c r="F188" s="6">
         <v>2202.9</v>
@@ -42351,10 +42507,10 @@
         <v>1118.0999999999999</v>
       </c>
       <c r="D189" s="6">
-        <v>-287806</v>
+        <v>-287816.09999999998</v>
       </c>
       <c r="E189" s="6">
-        <v>5189918.8</v>
+        <v>5152111.7</v>
       </c>
       <c r="F189" s="6">
         <v>2174.1999999999998</v>
@@ -42377,10 +42533,10 @@
         <v>1100.2</v>
       </c>
       <c r="D190" s="6">
-        <v>-295575.8</v>
+        <v>-293422.59999999998</v>
       </c>
       <c r="E190" s="6">
-        <v>5277293.5</v>
+        <v>5261203.7</v>
       </c>
       <c r="F190" s="6">
         <v>2150.3000000000002</v>
@@ -42400,13 +42556,13 @@
         <v>343</v>
       </c>
       <c r="C191" s="6">
-        <v>1082.5999999999999</v>
+        <v>1095.8</v>
       </c>
       <c r="D191" s="6">
-        <v>-303557.5</v>
+        <v>-302631.90000000002</v>
       </c>
       <c r="E191" s="6">
-        <v>5351572.3</v>
+        <v>5396034.5</v>
       </c>
       <c r="F191" s="6">
         <v>2126.6999999999998</v>
@@ -42429,10 +42585,10 @@
         <v>1078.3</v>
       </c>
       <c r="D192" s="6">
-        <v>-310908.40000000002</v>
+        <v>-313491.5</v>
       </c>
       <c r="E192" s="6">
-        <v>5413753.9000000004</v>
+        <v>5455633</v>
       </c>
       <c r="F192" s="6">
         <v>2116</v>
@@ -42448,15 +42604,17 @@
       <c r="A193" s="5">
         <v>44866</v>
       </c>
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>349</v>
+      </c>
       <c r="C193" s="6">
-        <v>1061</v>
+        <v>1066.4000000000001</v>
       </c>
       <c r="D193" s="6">
-        <v>-317666.09999999998</v>
+        <v>-320123.5</v>
       </c>
       <c r="E193" s="6">
-        <v>5460025.2000000002</v>
+        <v>5501296.2000000002</v>
       </c>
       <c r="F193" s="6">
         <v>2111.8000000000002</v>
@@ -42474,13 +42632,13 @@
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6">
-        <v>1049.4000000000001</v>
+        <v>1060</v>
       </c>
       <c r="D194" s="6">
-        <v>-323905.40000000002</v>
+        <v>-326353.7</v>
       </c>
       <c r="E194" s="6">
-        <v>5499202.0999999996</v>
+        <v>5541714.5999999996</v>
       </c>
       <c r="F194" s="6">
         <v>2088.6</v>
@@ -42490,6 +42648,30 @@
       </c>
       <c r="H194" s="6">
         <v>21268398.699999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6">
+        <v>1059.2</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-332367.7</v>
+      </c>
+      <c r="E195" s="6">
+        <v>5579003.0999999996</v>
+      </c>
+      <c r="F195" s="6">
+        <v>2065.6</v>
+      </c>
+      <c r="G195" s="6">
+        <v>-601948.1</v>
+      </c>
+      <c r="H195" s="6">
+        <v>21387341.5</v>
       </c>
     </row>
   </sheetData>
